--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celine\OneDrive\Bureau\P5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A260C0AA-AAE2-4C61-8784-62162F2EF28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9560556-3370-4C18-B4F3-8B3A23C4F0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="479">
   <si>
     <t>Body</t>
   </si>
@@ -31,18 +31,18 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>LDA_prediction_tags</t>
-  </si>
-  <si>
-    <t>NMF_prediction</t>
+    <t>Preprocessed_text</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>new_tags</t>
   </si>
   <si>
     <t>Multi_label_classfication</t>
   </si>
   <si>
-    <t>new_tags</t>
-  </si>
-  <si>
     <t xml:space="preserve">     fairly new   spring   excuse     this     dumb question  when   try   launch   program   get the following error   java lang illegalargumentexception  could not resolve placeholder  appclient    string value    appclient     the error   thrown when the following code   executed      package   virology lib  common config spring properties  import   virology lib  config spring propertiesconfig  import org slf   logger  import org slf   loggerfactory  import org springframework beans factory annotation value  import org springframework context annotation configuration  import org springframework context annotation import  import org springframework context annotation propertysource    configuration  import  propertiesconfig class    propertysource    appclient    public class appclientproperties   private static final logger log   loggerfactory getlogger appclientproperties class        this initializer block will execute when   instance   this class   created   spring  log info  loading appclientproperties       value    appclient port     private int appclientport    value    appclient host     private string appclienthost   public int getappclientport      return appclientport     public string getappclienthost      return appclienthost             property file called  appclient properties  exists   the resources folder with the information for host and port      not sure where the     appclient      defined          all  maybe     not even defined and that   causing the problem      need   change the     appclient      something like    classpath  appclient properties          missing something else    </t>
   </si>
   <si>
@@ -52,10 +52,7 @@
     <t>['java', 'spring']</t>
   </si>
   <si>
-    <t>['string', 'create', 'int', 'file', 'class', 'return', 'value', 'public', 'error', 'static', 'java']</t>
-  </si>
-  <si>
-    <t>['final', 'spring', 'create', 'class', 'return', 'property', 'public', 'define', 'static', 'import', 'bean']</t>
+    <t>fairly spring excuse dumb launch program error java lang illegalargumentexception resolve placeholder appclient string value appclient error throw execute package virology lib common config spring property import virology lib config spring propertiesconfig import org slf logger import org slf loggerfactory import org springframework bean factory annotation value import org springframework annotation configuration import org springframework annotation import import org springframework annotation propertysource configuration import propertiesconfig class propertysource appclient public class appclientpropertie static final logger log loggerfactory getlogger appclientpropertie class initializer block execute class create spring log info loading appclientpropertie value appclient port int appclientport value appclient host stre appclienthost public int getappclientport return appclientport public string getappclienthost return appclienthost property file appclient property resource folder information host port sure appclient define maybe define cause appclient classpath appclient property miss spring resolve placeholder</t>
   </si>
   <si>
     <t>[('java', 'spring')]</t>
@@ -70,18 +67,15 @@
     <t>['c++', 'filestream']</t>
   </si>
   <si>
-    <t>['color', 'unsigned']</t>
-  </si>
-  <si>
-    <t>['txt', 'create', 'save', 'file', 'path', 'directory', 'delete', 'write', 'read']</t>
+    <t>write extractor basic virtual file archive compression extractor running write file directory extract function extract ifstream ifs unsigned int offset unsigned int length std string path char file char length ifs seekg offset ifs read file length ofstream ofs path c_str io io binary ofs write file length ofs close cout patch length endl pause delete file vfs root file offset value file start length file length path value file save offset len example path data char actormotion txt create directory automatically ofstream</t>
+  </si>
+  <si>
+    <t>['c++']</t>
   </si>
   <si>
     <t>[()]</t>
   </si>
   <si>
-    <t>['c++']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> this     pseudo followup   this question   why   ggplot graphing null percentage data points      let   say this     dataset      date     aef percent                                                                                                                                                                                str data   data frame     obs      variables     date   factor      levels                                                    int                                int                            aef   int                            percent  num                                              need something   tell that the  date  column     date type   opposed     numeric   character type  this   because   have   convert the  date  column   the data input into   actual date with   date    asssuming that     not know the column names   the data set         numeric data       returns false   character data       returns false        made the  date  column   excel  formatting the column   the  date  format  then saved the file     csv  what type   this   r    seek   expression similar   the above that returns true   </t>
   </si>
   <si>
@@ -91,10 +85,10 @@
     <t>['r']</t>
   </si>
   <si>
-    <t>['app', 'type', 'input', 'set', 'file', 'datum']</t>
-  </si>
-  <si>
-    <t>['input', 'convert', 'date', 'return', 'format']</t>
+    <t>pseudo followup ggplot graph percentage datum point dataset date aef percent str data datum frame obs variables date factor level int int aef int percent num tell date column date type oppose numeric character type convert date column datum input actual date date asssume column datum set numeric data return character data return date column excel format column date format save file csv type r seek expression similar return column date r</t>
+  </si>
+  <si>
+    <t>[('r',)]</t>
   </si>
   <si>
     <t xml:space="preserve"> suppose   have these tables     create table bug      int primary key  name varchar      create table blocking      int primary key     int  name varchar       insert into bug values      bad name   insert into bug values      bad condition   insert into bug values      about box   insert into blocking values           bug   insert into blocking values         doc bug   insert into blocking values         doc bug        and     like   join the tables       columns and the result should   like this        name blockingname                                                         bad name   bug   bad condition null   about box null      this means      like   return all rows from  bug there should   only    bug  value   column  blockingname    null      matching row    blocking was found          naive select was like this      select   from  bug    left join  blocking                   where    name   null      name      bug       but this does not work  because   seems that the condition   first applied    blocking table and then     joined     what   the simplest typical solution for this problem     have   solution with nested select  but   hope there   something better   </t>
@@ -106,10 +100,7 @@
     <t>['mysql', 'sql', 'tsql', 'left-join']</t>
   </si>
   <si>
-    <t>['string', 'create', 'result', 'int', 'return', 'value', 'work', 'mean']</t>
-  </si>
-  <si>
-    <t>['create', 'join', 'insert', 'result', 'table', 'key', 'varchar', 'column', 'select', 'row', 'primary']</t>
+    <t>suppose table create table bug int primary key varchar create table block int primary key int varchar insert bug value bad insert bug value bad condition insert bug value box insert block value bug insert blocking value doc bug insert blocking value doc bug join table column result blockingname bad bug bad condition box mean return row bug bug value column blockingname matching row block naive select select bug leave join block bug work condition apply blocking table join typical nested select hope leave join condition</t>
   </si>
   <si>
     <t>['mysql', 'sql']</t>
@@ -124,16 +115,13 @@
     <t>['sql', 'sql-server', 'sql-server-2012']</t>
   </si>
   <si>
-    <t>['type', 'string', 'create', 'example', 'list', 'datum', 'method', 'value', 'work', 'write']</t>
-  </si>
-  <si>
-    <t>['create', 'join', 'statement', 'table', 'datum', 'field', 'column', 'select', 'server', 'sql']</t>
-  </si>
-  <si>
-    <t>[('sql', 'sql-server')]</t>
-  </si>
-  <si>
-    <t>['sql', 'sql-server']</t>
+    <t>old day write select statement select table columna table columna table table table columna value tell comma separate table clause ansi compatible join statement lead comparison data table common field table create join legacy method comma separate table clause example work perfectly fine feel uncomfortable method consider bad practice situation extra info table contain list location geography datum type table contain different list geography location write select statement compare distance location far join geography column correct select table sql server common field join</t>
+  </si>
+  <si>
+    <t>['sql']</t>
+  </si>
+  <si>
+    <t>[('sql',)]</t>
   </si>
   <si>
     <t xml:space="preserve">   would like   use the coffeescript existential operator   check some object properties for undefined  however    encountered   little problem     code like this      console log test   test       compiles           typeof test      undefined   amp  amp  test     null  console log test        which   the behavior   would like   see  however  when   try using   against object properties  like this      console log test test   test test         get something like that         test test    null  console log test test        which desn   look like   check against undefined   all  the only way   could have achieved the same       behavior   using   for objects was   using   larger check      console log test test   typeof test test     undefined  and test test    null      the question         doing something wrong      the compiled code what   enough   check for existence     property    null check with type conversion    </t>
@@ -145,18 +133,15 @@
     <t>['coffeescript', 'existential-operator']</t>
   </si>
   <si>
-    <t>['app', 'test', 'type', 'log']</t>
-  </si>
-  <si>
-    <t>['type', 'error', 'test', 'log', 'object']</t>
+    <t>coffeescript existential operator object property undefined encounter little console log test test compile typeof test undefined amp amp test console log test behavior object property console log test test test test test test console log test test desn undefined achieve behavior object large console log test test typeof test test undefined test test compile existence property type conversion coffeescript existential operator object property undefined</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>[('javascript',)]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> the two shadow piercing combinators have been deprecated   stated       then what   the substitude for achieving the same thing    this shadow piercing feature has been completely abandoned   </t>
   </si>
   <si>
@@ -166,10 +151,7 @@
     <t>['web', 'web-component', 'shadow-dom']</t>
   </si>
   <si>
-    <t>['file']</t>
-  </si>
-  <si>
-    <t>['app']</t>
+    <t>shadow pierce combinator deprecate substitude achieve shadow pierce feature completely abandon substitute shadow deep</t>
   </si>
   <si>
     <t xml:space="preserve">   want   hide the navbar     login page       did   actually  but   can   see the navbar   other pages     this code   part     app jsx file       make history   app   state  and   hide navbar  when this pathname           login        works      but then   typed the   and password  and clicked the login button  got  success  result  and navigated     main      now   can   see navbar   main component too     how can     this      sorry about   short english    you can   understand   question  you can comment       constructor props     super props    this state      isalertopen  false   history  createbrowserhistory         this togglealert   this togglealert bind this        browserrouter      div classname  app      this state history location pathname            this state history location pathname       login    null      header togglealert  this togglealert          div classname  container      this state history location pathname            this state history location pathname       login    null      navbar         route exact path     render           redirect     login              route path   login  component  login         route path   main  component  main         route path   user  component  user         route path     setting  component  setting         route path     detail     component  hwdetail         route path   gas detail     component  gasdetail        this state isalertopen     alert       null      div       div      browserrouter              login event     event preventdefault     userservice login this state    this state password  subscribe res           res result      success      global token   res token   this props history push   main       else    alert   error code     res statuscode     res msg                 </t>
@@ -181,18 +163,15 @@
     <t>['javascript', 'reactjs', 'react-router']</t>
   </si>
   <si>
-    <t>['app', 'error', 'user', 'work', 'file', 'path']</t>
-  </si>
-  <si>
-    <t>['react', 'component', 'app', 'route', 'work', 'router', 'user']</t>
+    <t>hide navbar login page actually navbar page app jsx file history app hide navbar pathname login work type password login button success result navigate main navbar main component short english comment constructor prop super prop isalertopen history createbrowserhistory togglealert togglealert bind browserrouter classname app history location pathname history location pathname login header togglealert togglealert classname container history location pathname history location pathname login navbar route exact path render redirect login route path login component login route path main component main route path user component user route path set component set route path component hwdetail route path gas component gasdetail isalertopen alert browserrouter login event event preventdefault userservice login password subscribe result success global token token prop history push main alert error statuscode msg hide navbar login page react router</t>
+  </si>
+  <si>
+    <t>['javascript', 'reactjs']</t>
   </si>
   <si>
     <t>[('javascript', 'reactjs')]</t>
   </si>
   <si>
-    <t>['javascript', 'reactjs']</t>
-  </si>
-  <si>
     <t xml:space="preserve">   have   compile time  directed acyclic graph    asynchronous tasks  the dag shows the dependencies between the tasks    analyzing        possible   understand what tasks can run   parallel     separate threads   and what tasks need   wait for other tasks   finish before they can begin   dependencies         want   generate   callback chain from the dag  using  boost  future  and the   then         when_all       continuation helper functions  the result   this generation will     function that  when called  will start the callback chain and execute the tasks   described   the dag  running   many tasks   possible   parallel         having trouble  however  finding   general algorithm that can work for all cases       made   few drawings   make the problem easier   understand  this     legend that will show you what the symbols   the drawings mean            let   begin with   simple  linear dag            this dependency graph consists   three tasks             and  c      c  depends            depends        there     possibility   parallelism here   the generation algorithm would build something similar   this      boost  future  void         c  end     then          then        c get     end get                     note that all code samples are not    valid       ignoring move semantics  forwarding and lambda captures       there are many approaches   solve this linear dag  either   starting from the end   the beginning      trivial   build   correct callback chain     things start   get more complicated when  forks and joins  are introduced     here     dag with   fork join                difficult   think     callback chain that matches this dag      try   work backwards  starting from the end    reasoning     follows        end  depends       and        join           depends    c         and  c  depend          fork             possible chain looks something like this      boost  future  void         c     end     then        boost  when_all    c then          get           then        end get                     found   difficult   write this chain   hand  and     also doubtful about its correctness    could not think     general way   implement   algorithm that could generate this   additional difficulties are also present due   the fact that  when_all  needs its arguments     moved into        let   see one last  even more complex  example            here   want   exploit parallelism   much   possible  consider task          can   run   parallel with any        c          this     possible callback chain      boost  future  void         c           end     then        boost  when_all boost  when_all    c  then          get               then          then        end get                            tried   come   with   general algorithm   several ways        starting from the beginning   the dag  trying   build   the chain using   then       continuations  this doesn   work with joins    the target join task would   repeated multiple times      starting from the end   the dag  trying   generate the chain using  when_all       continuations  this fails with forks    the node that creates the fork   repeated multiple times        obviously the  breadth first traversal  approach doesn   work well here  from the code samples that   have hand written    seems that the algorithm needs     aware   forks and joins  and needs     able   correctly mix   then       and  when_all       continuations     here are   final questions             always possible   generate    future  based callback chain from   dag   task dependencies  where every task appears only once   the callback chain             how can   general algorithm that  given   task dependency dag builds   callback chain    implemented            edit         here     additional approach      trying   explore     the idea     generate      dependencies          dependents       map data structure from the dag  and   generate the callback chain from that map        len dependencies            then  value       join  node        len dependents            then  key       fork  node     all the key value pairs   the map can   expressed    when_all keys     then values      continuations     the difficult part   figuring out the correct order   which    expand    think about something similar     parser   the nodes and how   connect the fork join continuations together     consider the following map  generated   image          depenendencies   dependents                                       end                   c                  c      begin               applying some sort   parser like reductions passes    can get    clean  callback chain         first pass     convert everything    when_all      then       notation when_all    then end  when_all       then    when_all    c  then    when_all    then    c     when_all begin  then        second pass     solve linear  trivial  transformations when_all       then   when_all    then end    when_all    c  then    when_all   when_all begin  then      then    c         third pass     solve fork join transformations when_all   when_all begin  then      then   when_all      when_all    c  then       then   when_all    then end            the third pass   the most important one  but also the one that looks really difficult   design   algorithm for     notice how      c   have     found inside the      c      list  and how    the          dependency list      must   interpreted   the result    when_all    c  then     and chained together with        when_all    when_all    c  then          maybe the entire problem can   simplified        given   map consisting     dependencies          dependents      key value pairs  how could   algorithm that transforms those pairs      when_all         then       continuation chain   implemented      edit       here   some  pseudocode    came   with for the approach described above    seems   work for the dag   tried  but   need   spend more time     and  mentally  test   with other  trickier  dag configurations   </t>
   </si>
   <si>
@@ -202,13 +181,7 @@
     <t>['c++', 'multithreading', 'algorithm', 'asynchronous', 'future']</t>
   </si>
   <si>
-    <t>['create', 'dependency', 'file', 'run', 'c', 'test', 'start', 'work']</t>
-  </si>
-  <si>
-    <t>['fail', 'node', 'create', 'run', 'error', 'test', 'time', 'work', 'start']</t>
-  </si>
-  <si>
-    <t>['c++', 'multithreading', 'algorithm']</t>
+    <t>compile time direct acyclic graph asynchronous task dag dependency task analyze possible task run parallel separate task wait task finish begin dependency generate callback chain dag boost future when_all continuation helper function result generation function start callback chain execute task dag run task possible parallel trouble general algorithm work case drawing easy legend symbol drawing mean begin linear dag dependency graph consist task c c depend depend possibility parallelism generation algorithm similar boost future c end c end note sample valid ignore semantic forward lambda capture approach solve linear dag start end begin trivial correct callback chain start complicated fork join introduce dag fork join difficult callback chain match dag work backwards start end reasoning end depend join depend c c depend fork possible chain boost future c end boost when_all c end difficult write chain hand doubtful correctness general implement algorithm generate additional difficulty present fact when_all argument complex example exploit parallelism possible consider task run parallel c possible callback chain boost future c end boost when_all boost when_all c end come general algorithm start begin dag chain continuation work join target join task repeat multiple time start end dag generate chain when_all continuation fail fork node create fork repeat multiple time obviously breadth traversal approach work sample hand write algorithm aware fork join correctly mix when_all continuation final possible generate future base callback chain dag task dependency task appear callback chain general algorithm task dependency dag callback chain implement edit additional approach explore generate dependency dependent map data structure dag generate callback chain map len dependency value join node len dependent key fork node key value pair map express when_all key value continuation difficult figure correct order expand similar parser node connect fork join continuation consider map generate image depenendencie dependent end c c begin apply sort parser reduction pass clean callback chain pass convert when_all notation when_all end when_all when_all c when_all c when_all begin second pass solve linear trivial transformation when_all when_all end when_all c when_all when_all begin c pass solve fork join transformation when_all when_all begin when_all when_all c when_all end pass important difficult design algorithm notice c inside c list dependency list interpret result when_all c chain when_all when_all c maybe entire simplified map consist dependency dependent key value pair algorithm transform pair when_all continuation chain implement edit pseudocode come approach work dag spend time mentally test tricky dag configuration asynchronous future callback chain compile time dependency graph dag</t>
   </si>
   <si>
     <t xml:space="preserve"> using trello api        been able   get all the cards that are assigned     trello user       been able   get all the boards that are assigned     organization    but   can   get any api call that returns all the lists that are     organization   user    there any function that allows that       thanks   advance   </t>
@@ -220,13 +193,7 @@
     <t>['list', 'api', 'trello']</t>
   </si>
   <si>
-    <t>['string', 'list', 'return', 'function']</t>
-  </si>
-  <si>
-    <t>['list', 'return']</t>
-  </si>
-  <si>
-    <t>['list']</t>
+    <t>trello api card assign trello user board assign organization api return list organization user function allow advance trello api getting board list card information</t>
   </si>
   <si>
     <t xml:space="preserve">     trying   read attribute values from themes and styles which were designed for platforms that are newer than     running   application        please don   ask why    you know anything about the libraries   write then you should already know that   like   push the capabilities   the platform            operating under the presumption that when android styles are compiled the attribute constants are what   used for the keys and therefore should theoretically   able     read   any platform somehow  this   what   have observed     happening with layout xmls     other libraries with   trouble     here     base test case which shows the problem  this should   compiled using android    +        resources      style name  theme breakme       item name  android actionbarstyle    style widget breakme   item       style      style name  widget breakme  parent  android widget       item name  android padding        item       style      resources        the fact that this uses  android actionbarstyle  specifically   irreleveant  all that should   understood   that its   attribute which was only available starting with android         here are the way that   have tried   access these values thus far   platforms  prior   android             textview  android layout_width  wrap_content   android layout_height  wrap_content   android text  break     style   android attr actionbarstyle            and       declare styleable name  whatever       item name  datstyle  format  reference         declare styleable      style name  theme breakme take        item name  datstyle    android attr actionbarsize   item      style      textview  android layout_width  wrap_content   android layout_height  wrap_content   android text  break     style   attr datstyle            and     typedvalue outvalue   new typedvalue    context gettheme   resolveattribute android r attr actionbarstyle  outvalue  true        and     int   theme   new int     android r attr actionbarsize    int theme_actionbarsize      typedarray     context obtainstyledattributes attrs  theme   int ref     getresourceid theme_actionbarsize           and     typedarray     context obtainstyledattributes attrs  r styleable actionbar  android r attr actionbarstyle           all   them result   this error   logcat        resourcetype     style contains key with bad entry            the        constant   the attribute value    android r attr actionbarstyle  which seems   indicate the platform   rejecting the attribute before   can even get   chance   access its value         looking for any other way   read attributes like this from the theme      fairly sure that once     obtained the style reference   won   have trouble reading its attributes       there any possible way     this   </t>
@@ -238,18 +205,15 @@
     <t>['android', 'android-theme']</t>
   </si>
   <si>
-    <t>['string', 'case', 'result', 'int', 'r', 'value', 'error', 'test', 'write', 'read']</t>
-  </si>
-  <si>
-    <t>['wrap_content', 'layout', 'theme', 'layout_width', 'textview', 'item', 'widget', 'compile', 'layout_height', 'application', 'android', 'style']</t>
+    <t>read attribute value theme style design platform running application ask library write push capability platform operating presumption android style compile attribute constant key theoretically read platform observed happen layout xmls library trouble base test case compile android resource style theme breakme item android actionbarstyle style widget breakme item style style widget breakme parent android widget item android pad item style resource fact android actionbarstyle specifically irreleveant attribute available start android access value far platform prior android textview android layout_width wrap_content android layout_height wrap_content android text break style android attr actionbarstyle declare styleable item datstyle format reference declare styleable style theme breakme item datstyle android attr actionbarsize item style textview android layout_width wrap_content android layout_height wrap_content android text break style attr datstyle typedvalue outvalue typedvalue gettheme resolveattribute android r attr actionbarstyle outvalue int theme int android r attr actionbarsize int theme_actionbarsize typedarray obtainstyledattribute attrs theme int ref getresourceid theme_actionbarsize typedarray obtainstyledattribute attrs r styleable actionbar android r attr actionbarstyle result error logcat resourcetype style contain key bad entry constant attribute value android r attr actionbarstyle indicate platform reject attribute chance access value read attribute theme fairly sure style reference trouble read attribute possible read theme attribute old platform</t>
+  </si>
+  <si>
+    <t>['android']</t>
   </si>
   <si>
     <t>[('android',)]</t>
   </si>
   <si>
-    <t>['android']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> after checking out the  official documentation       still not sure   how   create methods for use within  mongoose    create  amp  update documents       how can     this       have something like this   mind      myschema statics insertsomething   function insertsomething       return this insert           </t>
   </si>
   <si>
@@ -259,13 +223,10 @@
     <t>['node.js', 'mongodb', 'methods', 'express', 'mongoose']</t>
   </si>
   <si>
-    <t>['string', 'static', 'create', 'function', 'return', 'amp', 'method']</t>
-  </si>
-  <si>
-    <t>['function', 'document', 'return', 'method']</t>
-  </si>
-  <si>
-    <t>['node.js', 'mongodb', 'express']</t>
+    <t>official documentation sure create method mongoose create amp update document mind myschema static insertsomethe function insertsomethe return insert create method update save document mongoose</t>
+  </si>
+  <si>
+    <t>['node.js']</t>
   </si>
   <si>
     <t xml:space="preserve">   have some parameters being passed from cpu   gpu that are constant for all fragments but which change   every frame      using glsl         should   use uniforms   attributes for such values  attributes can vary from vertex   vertex     intuition   that using attributes for values that are constant across the entire frame would   inefficient  however      read that uniforms are for values which change  relatively infrequently   suggesting that changing uniforms   every frame might   inefficient       terms   hardware      most interested   optimizing for the iphone      </t>
@@ -277,10 +238,7 @@
     <t>['glsl', 'fragment-shader', 'opengl-es-1.1']</t>
   </si>
   <si>
-    <t>['string', 'parameter', 'pass', 'read', 'value']</t>
-  </si>
-  <si>
-    <t>['parameter', 'pass', 'read', 'value']</t>
+    <t>parameter pass cpu gpu constant fragment frame glsl uniform attribute value attribute vary vertex vertex intuition attribute value constant entire frame inefficient read uniform value relatively infrequently suggest uniform frame inefficient term hardware interested optimize iphone uniform versus attribute glsl</t>
   </si>
   <si>
     <t xml:space="preserve">   have the following sqlite code  how     insert   auto generating unique   into each row         executesql  drop table   exists entries       executesql  create table   not exists entries    unique  data         executesql  insert into entries     data  values      first row         executesql  insert into entries     data  values      second row         </t>
@@ -292,13 +250,7 @@
     <t>['sql', 'database', 'sqlite']</t>
   </si>
   <si>
-    <t>['string', 'datum', 'create', 'value']</t>
-  </si>
-  <si>
-    <t>['create', 'insert', 'unique', 'row', 'table', 'datum']</t>
-  </si>
-  <si>
-    <t>['sql', 'database']</t>
+    <t>sqlite insert auto generating unique row executesql drop table entry executesql create table entrie unique datum executesql insert entrie data value row executesql insert entrie data value second row insert unique sqlite row</t>
   </si>
   <si>
     <t xml:space="preserve">  unity       mecanim  animations system has   custom  editorwindow  that allows   define   tree    blend tree   this case  thorough gui       looks like            offers the possibility   creating nodes  states  and connect them  transitions       now      developing some graph and and tree structure and   would like   write   editor extension   order   allow   game designer   populate those structures        want pretty most recreate exactly    editorwindow  like the one   mecanim animator  figure above        question    are there any available components that   can use for such   task    there any builtin class used for the drawing and connecting boxes and arrow      need   write completely the gui elements     own   </t>
@@ -310,10 +262,7 @@
     <t>['c#', 'unity3d']</t>
   </si>
   <si>
-    <t>['app', 'create', 'class']</t>
-  </si>
-  <si>
-    <t>['define', 'case', 'create', 'component', 'class', 'box']</t>
+    <t>unity mecanim animation custom editorwindow allow define tree blend tree case thorough gui offer possibility create node connect transition develop graph tree structure write editor extension order allow game designer populate structure pretty recreate exactly editorwindow mecanim animator figure available component task builtin class draw connect box arrow write completely gui write gui editor graph tree structure</t>
   </si>
   <si>
     <t>['c#']</t>
@@ -328,7 +277,7 @@
     <t>['git', 'netbeans']</t>
   </si>
   <si>
-    <t>['app', 'google']</t>
+    <t>netbean support git git blame inside netbean google turn useful netbean git tutorial mention git blame git blame netbean</t>
   </si>
   <si>
     <t>['git']</t>
@@ -346,18 +295,15 @@
     <t>['twitter-bootstrap', 'twitter-bootstrap-3', 'navbar']</t>
   </si>
   <si>
-    <t>['string', 'create', 'class']</t>
-  </si>
-  <si>
-    <t>['bootstrap', 'create', 'button', 'btn', 'class', 'href', 'form', 'override']</t>
+    <t>create navbar bootstrap collapse responsive necessary title leave button goal title button appear resolution class navbar navbar fix form class navbar form navbar button class btn btn default button button button class btn btn default button button form class navbar brand href title numerous combination documentation post outline nav header class duplicate inside nav header override medium query style easy navbar collapse bootstrap navbar responsive collapse</t>
+  </si>
+  <si>
+    <t>['twitter-bootstrap']</t>
   </si>
   <si>
     <t>[('twitter-bootstrap',)]</t>
   </si>
   <si>
-    <t>['twitter-bootstrap', 'twitter-bootstrap-3']</t>
-  </si>
-  <si>
     <t xml:space="preserve">     planning       series      tor uses socks      went out and searched for   way   proxify        planning   the the default    however    can   seem   find   way   use   proxy with that   someone suggested that   could   this      var   http    var options      host   localhost    port      path        method   get    headers     host             var req   http request options  function res     res    data   function  chunk     console log  body    + chunk                 but   didn   work      any suggestions   </t>
   </si>
   <si>
@@ -367,18 +313,12 @@
     <t>['http', 'node.js', 'proxy', 'tor']</t>
   </si>
   <si>
-    <t>['string', 'work', 'function', 'var', 'method']</t>
-  </si>
-  <si>
-    <t>['body', 'function', 'console', 'var', 'method', 'work', 'log']</t>
+    <t>plan series tor sock search proxify planning default proxy suggest var http var option host localhost port path method header host var req http request option function data function chunk console log body chunk work suggestion http request sock proxy nodejs</t>
   </si>
   <si>
     <t>[('javascript', 'node.js')]</t>
   </si>
   <si>
-    <t>['http', 'node.js']</t>
-  </si>
-  <si>
     <t xml:space="preserve">   want   execute the multiple queries   job   one execute  something like this         string query  select   from tab  insert into tab  values      update tab    delete from tab       statement     con  createstatement    resultset       executequery query          multiple select queries queries will   dynamic     but     not able     this what   the way   run multiple queries separated   semi colon   </t>
   </si>
   <si>
@@ -388,10 +328,7 @@
     <t>['java', 'jdbc']</t>
   </si>
   <si>
-    <t>['app', 'run']</t>
-  </si>
-  <si>
-    <t>['query', 'insert', 'statement', 'table', 'delete', 'update', 'select', 'sql']</t>
+    <t>execute multiple query job execute string query select tab insert tab value update tab delete tab statement createstatement resultset executequery query multiple select query query dynamic run multiple query separate semi colon execute multiple sql statement java</t>
   </si>
   <si>
     <t>['java']</t>
@@ -406,18 +343,15 @@
     <t>['typescript', 'mapped-types', 'index-signature']</t>
   </si>
   <si>
-    <t>['app', 'type']</t>
-  </si>
-  <si>
-    <t>['type', 'string', 'object', 'key']</t>
+    <t>figure difference index signature record type explain difference versus specifically define type object random string key value iterate difference objectvariable record string string objectvariable index string string difference index signature record object</t>
+  </si>
+  <si>
+    <t>['typescript']</t>
   </si>
   <si>
     <t>[('string',)]</t>
   </si>
   <si>
-    <t>['typescript']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> trying   install  fosuserbundle  bundle from below link  how   install    party bundles  but getting this error        symfony component config definition exception invalidconfigurationexception  the child node  db_driver    path  fos_user  must   configured     </t>
   </si>
   <si>
@@ -427,10 +361,7 @@
     <t>['php', 'symfony']</t>
   </si>
   <si>
-    <t>['app', 'error', 'link']</t>
-  </si>
-  <si>
-    <t>['error', 'node', 'install']</t>
+    <t>install fosuserbundle bundle link install party bundle error symfony component config definition exception invalidconfigurationexception child node db_driver path fos_user configure install fosuserbundle error</t>
   </si>
   <si>
     <t>['php']</t>
@@ -445,10 +376,7 @@
     <t>['java', 'json', 'jackson']</t>
   </si>
   <si>
-    <t>['app', 'create', 'work', 'class', 'server']</t>
-  </si>
-  <si>
-    <t>['create', 'example', 'class', 'property', 'method']</t>
+    <t>annotation ignore property jpa entity jsonignorepropertie hibernatelazyinitializer handler create update createdby lastupdatedby addition ignore class property ignore unknown property server receive ignore unknown property annotation jsonignorepropertie ignoreunknown sure annotation multiple method ås work example online scenario example lead documentation jsonignorepropertie usage known unknown property</t>
   </si>
   <si>
     <t>['java', 'json']</t>
@@ -463,15 +391,15 @@
     <t>['docker', 'docker-for-windows']</t>
   </si>
   <si>
-    <t>['version', 'fail', 'send', 'run', 'object', 'error', 'install', 'start', 'window']</t>
+    <t>install docker community edition window installation successful ask logout login start docker task cancel docker core pipe namedpipeclient send string action object parameter docker wpf backendclient version docker program run ireadonlycollection args option pointer helpful docker fail initialize</t>
+  </si>
+  <si>
+    <t>['docker']</t>
   </si>
   <si>
     <t>[('docker',)]</t>
   </si>
   <si>
-    <t>['docker']</t>
-  </si>
-  <si>
     <t xml:space="preserve">     looking for   clean way   create destructurable objects   line   kotlin pair  and  kotlin triple  cover   lot   use cases  but sometimes there are more objects that are needed     passed     one sample use case        zip  function  where the results   several     calls need     mapped into another object      single   zip repositorya loaddata someid    repositoryb loaddata someid    repositoryc loadall     repositoryd loadall        objecta  objectb  objectsc  objectsd       some kotlin magic          map    objecta  objectb  objectsc  objectsd          the mapping              trying   figure out what would     the  some kotlin magic  part    there were only   repositories    would       triple objecta  objectb  objectsc           need   create   new data class for this  and for any   tuple case      there another way   </t>
   </si>
   <si>
@@ -481,16 +409,7 @@
     <t>['kotlin', 'rx-java']</t>
   </si>
   <si>
-    <t>['app', 'create', 'function', 'datum', 'class']</t>
-  </si>
-  <si>
-    <t>['map', 'case', 'result', 'function', 'datum', 'pass', 'object']</t>
-  </si>
-  <si>
-    <t>[('kotlin',)]</t>
-  </si>
-  <si>
-    <t>['kotlin']</t>
+    <t>clean create destructurable object line kotlin pair kotlin triple cover lot case object pass sample case zip function result map object single zip repositorya loaddata someid repositoryb loaddata someid repositoryc loadall repositoryd loadall objecta objectb objectsc objectsd kotlin magic map objecta objectb objectsc objectsd map figure kotlin magic repository triple objecta objectb objectsc create datum class tuple case kotlin quadruple quintuple destructure</t>
   </si>
   <si>
     <t xml:space="preserve">   have     tags and   several  div  inside                   div class  test      div      div class  test      div                    div class  test      div                 want   add  margin bottom     div    there are more than one   the      how can     this with the css   </t>
@@ -502,13 +421,10 @@
     <t>['html', 'css']</t>
   </si>
   <si>
-    <t>['css', 'margin', 'height']</t>
-  </si>
-  <si>
-    <t>['test', 'class']</t>
-  </si>
-  <si>
-    <t>[('css',)]</t>
+    <t>tag inside class test class test class test margin css css child</t>
+  </si>
+  <si>
+    <t>[('css', 'html')]</t>
   </si>
   <si>
     <t xml:space="preserve">     trying   loop over   javascript object            for  let  value  index    object       something with rest     index                something with first item              works fine  although when   try   use index   get the first item   returns   error   console      uncaught typeerror  invalid attempt   destructure non iterable instance      any ideas   how   loop over   object with index  thanks   </t>
@@ -520,10 +436,7 @@
     <t>['javascript', 'for-loop', 'ecmascript-6']</t>
   </si>
   <si>
-    <t>['app', 'error', 'item', 'javascript', 'work']</t>
-  </si>
-  <si>
-    <t>['loop', 'item', 'iterate', 'index', 'list', 'return', 'object']</t>
+    <t>loop javascript object value index object rest index item work fine index item return error console uncaught typeerror invalid attempt destructure non iterable loop object index iterate javascript object index</t>
   </si>
   <si>
     <t>['javascript']</t>
@@ -538,25 +451,22 @@
     <t>['android', 'json', 'gson']</t>
   </si>
   <si>
-    <t>['type', 'string', 'set', 'list', 'class', 'object', 'datum', 'public', 'work', 'array']</t>
-  </si>
-  <si>
-    <t>['type', 'string', 'set', 'json', 'stre', 'object', 'public', 'parse', 'field']</t>
+    <t>ask different today afraid phrased json input datum option_value item array object string object gson handle properly class list object work item option_value array stre app crash json parse exception workaround update relevant class request public class option string product_option_id string option_id string string type string require list optionvalue option_value set stuff public class optionvalue string product_option_value_id string option_value_id string string image string price string price_prefix set stuff gson field different type</t>
   </si>
   <si>
     <t>['android', 'json']</t>
   </si>
   <si>
+    <t>[('json',)]</t>
+  </si>
+  <si>
     <t xml:space="preserve">   got this class      public class foobase    public list  methodswithcustattribute   methodslist   public bool foomethod  callermembername string membername             this returns   value depending   type and method   public void getmethods          here populate methodslist using reflection           and this attribue class        this attribute get from   database some things  then foomethod check this attribute members public class customattribute    public string fullmethodpath   public bool something   public bool customattribute  callermembername string membername          fullmethodpath     derivedtype   + membername      need here   get the type   membername parent     here   want   get custclass  not foobase            then   have this      public class custclass   foobase     customattribute     public string method           foomethod                            need the type name   the callermember  there   something like  callermembername    get the type   class owner   the caller     </t>
   </si>
   <si>
     <t>how get type name callermember</t>
   </si>
   <si>
-    <t>['file', 'class']</t>
-  </si>
-  <si>
-    <t>['type', 'class', 'return', 'member', 'public', 'method', 'attribute']</t>
+    <t>class public class foobase public list methodswithcustattribute methodslist public bool foomethod callermembername string membername return value depend type method public getmethod populate methodslist reflection attribue class attribute database foomethod attribute member public class customattribute public string fullmethodpath public bool public bool customattribute callermembername string membername fullmethodpath derivedtype membername type membername parent custclass foobase public class custclass foobase customattribute public string method foomethod type callermember callermembername type class owner caller type callermember</t>
   </si>
   <si>
     <t>[('c#',)]</t>
@@ -571,10 +481,7 @@
     <t>['r', 'data.table', 'fread']</t>
   </si>
   <si>
-    <t>['string', 'case', 'result', 'function', 'line', 'file', 'datum', 'loop', 'argument', 'time', 'read']</t>
-  </si>
-  <si>
-    <t>['result', 'row', 'table', 'datum', 'temp']</t>
+    <t>input large tab delimit file fread function package datum table large fit completely memory input chunk skip nrow argument chunk size chunk temp fread myfile txt skip chunk chunk size nrow chunk size temp chunk chunk nrow temp case read million row time perform calculation million chunk retrieve fread start scan file begin loop iteration skip increase million result chunk fread long long actually chunk inefficient tell fread pause million line continue read point restart begin feature request read chunk time fread package datum table</t>
   </si>
   <si>
     <t xml:space="preserve"> basically what   want     keyboard shortcut   vim that lets    compile and  run the currently being edited c  c++   python program    psuedocode      when   shortcut key   pressed     current_extension     c  then  shell  gcc this_filename c    this_filename_without_extension    retcode      then shell    this_filename_without_extension  else   current_extension     cpp  then  shell   ++ this_filename cpp    this_filename_without_extension    retcode      then shell    this_filename_without_extension  else   current_extension        then  shell  python this_filename    end   end key        realise   might   asking   bit much but would love     this was possible   </t>
@@ -586,18 +493,15 @@
     <t>['c++', 'python', 'c', 'shell', 'vim']</t>
   </si>
   <si>
-    <t>['python', 'file', 'run', 'c']</t>
-  </si>
-  <si>
-    <t>['python', 'run', 'program']</t>
+    <t>basically keyboard shortcut vim compile run currently edit c c++ python program psuedocode shortcut key pressed current_extension c shell gcc this_filename c this_filename_without_extension retcode shell this_filename_without_extension current_extension cpp shell this_filename cpp this_filename_without_extension retcode shell this_filename_without_extension current_extension shell python this_filename end end key realise ask bit love possible vim compile run shortcut</t>
+  </si>
+  <si>
+    <t>['c++', 'python', 'c']</t>
   </si>
   <si>
     <t>[('python',)]</t>
   </si>
   <si>
-    <t>['c++', 'python', 'c', 'shell']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> when   table   updated   another party  the   context   dotnet core still return the old value  how can   force the   context   refresh         done research but   only found people use  reload  method  which   not available     core    force the context   refresh     some other solution suggests dispose the context after using  but   get error saying the   context   created   dependency injection and   should not mess   with     </t>
   </si>
   <si>
@@ -607,10 +511,7 @@
     <t>['c#', '.net-core', 'entity-framework-core']</t>
   </si>
   <si>
-    <t>['error', 'create', 'dependency', 'file', 'core']</t>
-  </si>
-  <si>
-    <t>['entity', 'create', 'update', 'table']</t>
+    <t>table update party dotnet core return old value force refresh research people reload method available core force refresh suggest dispose error create dependency injection mess refresh entity framework core dbcontext</t>
   </si>
   <si>
     <t xml:space="preserve">   angular    change detection was   dirty checking the  scope hierarchy    would implicitly   explicitly create watchers   our templates  controllers   components       angular       longer have  scope  but     override setinterval  settimeout         can see how angular might use this   trigger    digest  but how does angular determine what has changed  especially given that object observe never made   into browsers     example    here     simple example    object defined     service   updated     setinterval  the dom   recompiled each interval     how   angular able   tell that the appcomponent   watching the service  and that the value     attribute   the service has changed      var injectedservice   function      var val          setinterval        val  ++       return val     var appcomponent     core   component    selector   app    template        service              class    constructor  function service     this service   service          appcomponent parameters     new   core inject  injectedservice       document addeventlistener  domcontentloaded   function        platform browser bootstrap appcomponent   injectedservice          </t>
@@ -622,10 +523,7 @@
     <t>['angularjs', 'angular']</t>
   </si>
   <si>
-    <t>['string', 'create', 'function', 'example', 'class', 'return', 'object', 'value', 'var', 'work', 'parameter', 'constructor']</t>
-  </si>
-  <si>
-    <t>['scope', 'controller', 'angular', 'function', 'component', 'return', 'var', 'object', 'define', 'template', 'work', 'document']</t>
+    <t>angular detection dirty scope hierarchy implicitly explicitly create watcher template controller component angular long scope override setinterval settimeout angular trigger digest angular determine especially object observe browser example example object define service update setinterval dom recompile interval angular tell appcomponent watch service value attribute service var injectedservice function var val setinterval val return val var appcomponent core component selector app template service class constructor function service service service appcomponent parameter core inject injectedservice document addeventlistener domcontentloade function platform browser bootstrap appcomponent injectedservice angular detection work</t>
   </si>
   <si>
     <t>[('angular',)]</t>
@@ -640,13 +538,10 @@
     <t>['ios', 'arrays', 'swift']</t>
   </si>
   <si>
-    <t>['app', 'var']</t>
-  </si>
-  <si>
-    <t>['result', 'example', 'remove', 'array', 'var']</t>
-  </si>
-  <si>
-    <t>[('arrays', 'ios', 'swift')]</t>
+    <t>remove array int swift example var array result array contain remove array int swift</t>
+  </si>
+  <si>
+    <t>[('arrays', 'swift')]</t>
   </si>
   <si>
     <t xml:space="preserve">     just discovered the hdf  format and     considering using     store    data spread over   cluster   java application servers    have found out that there are several implementations available for java  and would like   know the differences between them         java    interface  jhi    the java wrapper from the hdf group itself       jhdf   hdf  for java        permafrost       nujan  pure java netcdf  and hdf  writer   cannot read hdf         most importantly    would like   know        how much   the native api   covered  any limitations that   not exist   the native api        there   support for  parallel hdf        once      data   loaded      get    native call overhead  each time   access one element        array  that      the data actually gets turned into java objects    stay    native jni memory         there any know  stability  problems with   particular implementation  since   crash   native code normally takes the whole jvm down      </t>
@@ -658,10 +553,7 @@
     <t>['java', 'hdf5']</t>
   </si>
   <si>
-    <t>['array', 'date', 'difference', 'object', 'format']</t>
-  </si>
-  <si>
-    <t>['interface', 'java', 'jvm']</t>
+    <t>discover hdf format consider store datum spread cluster java application server implementation available java difference java interface jhi java wrapper hdf group jhdf hdf java permafrost nujan pure java netcdf hdf writer read hdf importantly native api cover limitation native api support parallel hdf datum load native overhead time access array datum actually gets turn java object stay native jni memory stability particular implementation crash native normally jvm hdf java difference availabe apis</t>
   </si>
   <si>
     <t>[('java',)]</t>
@@ -676,18 +568,15 @@
     <t>['windows', 'batch-file', 'cmd']</t>
   </si>
   <si>
-    <t>['app', 'run', 'title']</t>
-  </si>
-  <si>
-    <t>['error', 'run', 'window']</t>
+    <t>run taskkill console window space title pass window title taskkill taskkill windowtitle administrator window title taskkill window space title</t>
+  </si>
+  <si>
+    <t>['windows']</t>
   </si>
   <si>
     <t>[('windows',)]</t>
   </si>
   <si>
-    <t>['windows']</t>
-  </si>
-  <si>
     <t xml:space="preserve">     seen the answer   this  swift equatable protocol  question that mentions how the      method must   declared   the global scope         don   adopt  equatable     still could declare        test for equality between two     types         extension foo  equatable     func    lhs  foo  rhs  foo      bool    return lhs bar    rhs bar    struct foo    let bar int        the fact that its implementation needs     declared     global scope  makes   seem  incidental    and  distinct  from   protocol  even    equatable  was adopted     how   the  equatable  protocol anything more than syntactic sugar that merely lets    and  the compiler safely know that our type implemented the required method   the protocol     why does the operator implementation have     globally declared  even for   protocol    this due   some different way that   operator   dispatched   </t>
   </si>
   <si>
@@ -697,18 +586,15 @@
     <t>['ios', 'swift', 'equatable']</t>
   </si>
   <si>
-    <t>['file', 'test']</t>
-  </si>
-  <si>
-    <t>['type', 'int', 'declare', 'return', 'operator', 'struct', 'compiler']</t>
+    <t>answer swift equatable protocol mention method declare global scope adopt equatable declare test equality type extension equatable func lhs rh bool return lhs bar rhs bar struct bar int fact implementation declare global scope incidental distinct protocol equatable adopt equatable protocol syntactic sugar merely compiler safely type implement require method protocol operator implementation globally declare protocol different operator dispatch protocol operator implement global function</t>
+  </si>
+  <si>
+    <t>['ios', 'swift']</t>
   </si>
   <si>
     <t>[('swift',)]</t>
   </si>
   <si>
-    <t>['ios', 'swift']</t>
-  </si>
-  <si>
     <t xml:space="preserve">     trying   get tensorflow       chromebook  not the best place    know  but   just want   get   feel for      haven   done much work   the python dev environment      any dev environment for that matter    bear with    after figuring out pip    installed tensorflow and tried   import    receiving this error      python        default  nov              gcc            linux type  help    copyright    credits     license  for more information         import tensorflow                      tensorflow core platform cpu_feature_guard      the tensorflow library was compiled   use avx instructions  but these aren   available   your machine  aborted  core dumped       after some research    have discovered that   processor    intel celeron     bay trail   architecture   does not support avx instructions      was wondering   there was   way   use   version compiled for some other instruction set  cog tells     can use mmx and various sses  whatever the hell that means           this   sort     duplicate    tensorflow error using avx instructions   linux while working   windows   the same machine  but not entirely  plus   can   comment because   don   have   reputation              looked    how   compile tensorflow with sse    and avx instructions   and got scared  </t>
   </si>
   <si>
@@ -718,10 +604,7 @@
     <t>['python', 'tensorflow', 'avx']</t>
   </si>
   <si>
-    <t>['app', 'type', 'error', 'set', 'work']</t>
-  </si>
-  <si>
-    <t>['version', 'instal', 'pip', 'library', 'python', 'tensorflow', 'import', 'window']</t>
+    <t>tensorflow chromebook place feel work python dev environment dev environment matter bear figure pip instal tensorflow import receive error python default nov gcc linux type copyright credit license information import tensorflow tensorflow core platform cpu_feature_guard tensorflow library compile avx instruction available machine abort core dump research discover processor intel celeron bay trail architecture support avx instruction wonder version compile instruction set cog tell mmx sse hell mean sort duplicate tensorflow error avx instruction linux work windows machine entirely plus comment reputation compile tensorflow sse avx instruction scare version tensorflow compile avx instruction</t>
   </si>
   <si>
     <t>['python']</t>
@@ -736,10 +619,7 @@
     <t>['c#', 'excel', 'excel-interop']</t>
   </si>
   <si>
-    <t>['string', 'create', 'set', 'function', 'value', 'c', 'time', 'read']</t>
-  </si>
-  <si>
-    <t>['function']</t>
+    <t>excel workbook custom non time dependent cell function open c windowsform application interop excel read value perform explicit calculation close c directly close saving save prompt suspect excel interpret auto recalculation open create actually numerically formulaically set excel application calculation excel xlcalculation xlcalculationmanual prevent save prompt appear close save close save excel xlsm workbook custom function c</t>
   </si>
   <si>
     <t xml:space="preserve"> how   check   the value    not  greater than       javascript       tried                      but     not working   </t>
@@ -751,10 +631,7 @@
     <t>['javascript', 'if-statement']</t>
   </si>
   <si>
-    <t>['app', 'javascript', 'work']</t>
-  </si>
-  <si>
-    <t>['work', 'value']</t>
+    <t>value great javascript work javascript great</t>
   </si>
   <si>
     <t xml:space="preserve"> one   the things about angular that   both   feature and   point   complexity    that     not very opinionated about how   interact with   restful api    know about   resource    restangular   and various ideas you can find    rolling your own         complex application that   got   large number   resources  including various nestings  there    reason   think  that restangular   superior    resource  for similar reasons  also that restangular   better than rolling your own    one solution that   haven   seen until recently    jsdata  and its  wrapper for angularjs    repo    judging from the number   favorites   github         has   decent number   people   least interested        not using        only   fraction   the following that restangular has   github    +   but still significant     for those who have used both restangular and jsdata  what   your take   how they compare  strengths weaknesses  differences   purpose  reliability  etc   things that may not   readily apparent from the docs    for this question   remain open  please stick   facts rather than opinions      impressions from what     read are the following    restangular      +  big mindshare    +  highly customizable       focus seems       the actual interaction with the restful api only  rather than also being opinionated acting     data store once     returned  please correct         wrong   granted  this could   considered   feature    the same way angular   lack   opinion     feature      putting this       disadvantage for now  though  because   the additional legwork this means for the developer   come   with their own solution      jsdata      +  works not only with rest  but localstorage  localforage  firebase  etc  including custom adapters    +  designed     cached data store   not have   repeat     option with restangular   though perhaps less intertwined critical   its mission        not   large   following  although the developer does seem committed    </t>
@@ -766,10 +643,7 @@
     <t>['javascript', 'angularjs', 'restangular', 'angular-resource', 'angular-data']</t>
   </si>
   <si>
-    <t>['app', 'work', 'datum', 'application', 'api']</t>
-  </si>
-  <si>
-    <t>['error', 'work', 'datum', 'application', 'api']</t>
+    <t>angular feature point complexity opinionate interact restful api resource restangular roll complex application large number resource include nesting reason restangular superior resource similar reason restangular rolling recently jsdata wrapper angularjs repo judge number favorite github decent number people interested fraction restangular github significant restangular jsdata compare strength weakness difference purpose reliability readily apparent doc remain open stick fact opinion impression read restangular big mindshare highly customizable focus actual interaction restful api opinionate act datum store return correct grant consider feature angular lack opinion feature disadvantage additional legwork mean developer come jsdata work rest localstorage localforage firebase include custom adapter design cached datum store repeat option restangular intertwine critical mission large developer commit comparison restangular jsdata angular datum</t>
   </si>
   <si>
     <t>['javascript', 'angularjs']</t>
@@ -784,15 +658,15 @@
     <t>['reactjs', 'eslint']</t>
   </si>
   <si>
-    <t>['type', 'string', 'map', 'number', 'line', 'list', 'return', 'object', 'class', 'error', 'static', 'constructor']</t>
-  </si>
-  <si>
-    <t>['col', 'default', 'table', 'key', 'unique', 'row', 'user']</t>
+    <t>react output table contain information user eslint error eslint miss key prop iterator react jsx key sure properly assign unique number person user list sure error persistent peoplecard import react react import card cardimg cardtext cardbody cardtitle cardsubtitle button reactstrap import proptype prop type class peoplecard extends react component static proptype person proptype object proptype number proptype string company proptype string description proptype string render return card cardimg width src alt card image cap cardbody cardtitle prop person cardtitle cardsubtitle prop person company cardsubtitle cardtext prop person description cardtext button button button cardbody card export default peoplecard mainarea import react react import container row col reactstrap import peoplecard peoplecard class mainarea extend react component constructor super people john company company description meet party mary company company description meet party jane company company description meet party render peoplecard people map person return col peoplecard key person person person col return container fluid row peoplecard row container export default mainarea line throw error figure col peoplecard key person person person col prevent error appearing eslint miss key prop iterator react jsx key</t>
   </si>
   <si>
     <t>['reactjs']</t>
   </si>
   <si>
+    <t>[('reactjs',)]</t>
+  </si>
+  <si>
     <t xml:space="preserve"> where can   find the default vimrc   mac when there         vimrc     some linux its located   the   etc vimrc   </t>
   </si>
   <si>
@@ -802,16 +676,7 @@
     <t>['macos', 'vim']</t>
   </si>
   <si>
-    <t>['string']</t>
-  </si>
-  <si>
-    <t>['error']</t>
-  </si>
-  <si>
-    <t>[('macos',)]</t>
-  </si>
-  <si>
-    <t>['macos']</t>
+    <t>default vimrc mac vimrc linux locate vimrc default vimrc locate mac</t>
   </si>
   <si>
     <t xml:space="preserve">     trying   create   list based   another list  with the same values repeated   times consecutively       the moment      using             my_list                   three_times             for     range  len  my_list          for     range           three_times append  my_list                   print three_times                         but   would like       using   more pythonic way  such               my_list                   three_times             three_times      value       for value   my_list          print three_times                             however    cannot find   way   unpack the tuples      something like  three_times         value         for value   my_list    would   perfect for unpacking the tuples but this   not   correct syntax   </t>
@@ -823,13 +688,7 @@
     <t>['python', 'tuples', 'list-comprehension', 'iterable-unpacking']</t>
   </si>
   <si>
-    <t>['string', 'create', 'print', 'list', 'operator', 'value', 'python', 'time']</t>
-  </si>
-  <si>
-    <t>['print', 'value']</t>
-  </si>
-  <si>
-    <t>[('list', 'python')]</t>
+    <t>create list base list value repeat time consecutively moment my_list three_time range len my_list range three_times append my_list print three_time pythonic my_list three_time three_times value value my_list print three_times unpack tuple three_times value value my_list perfect unpack tuple correct syntax unpack tuple python list comprehension operator</t>
   </si>
   <si>
     <t xml:space="preserve">   use   edittext   enter password  and   checkbox   show password   not  below function   the part      public void showpassword           ischecked       password setinputtype inputtype type_text_variation_visible_password      else    password setinputtype inputtype type_text_variation_password             when   checked    show password  but when   not checked    does show stars  how   modify     show star while the     not checked   </t>
@@ -841,10 +700,7 @@
     <t>['android', 'android-edittext']</t>
   </si>
   <si>
-    <t>['public', 'string', 'function']</t>
-  </si>
-  <si>
-    <t>['error', 'password']</t>
+    <t>edittext enter password checkbox password function public showpassword ischecked password setinputtype inputtype type_text_variation_visible_password password setinputtype inputtype type_text_variation_password password star modify star password edittext</t>
   </si>
   <si>
     <t xml:space="preserve">   have   variable name  say  ward_vs_vital_signs   and   want   convert     pascal case format   wardvsvitalsigns      ward_vs_vital_signs     wardvsvitalsigns      how can   make this conversion   </t>
@@ -856,7 +712,7 @@
     <t>['c#', 'pascalcasing', 'case-conversion']</t>
   </si>
   <si>
-    <t>['string', 'case', 'variable', 'convert', 'text', 'format']</t>
+    <t>variable ward_vs_vital_sign convert pascal case format wardvsvitalsign ward_vs_vital_signs wardvsvitalsign conversion convert text pascal case</t>
   </si>
   <si>
     <t xml:space="preserve">   c++  say that      uint _t    uint _t         then         will yield    uint _t  that has   value the lower part   the multiplication between     and                     mod       now  what     wanted the higher part   the multiplication    know that there exists   assembly instruction     something like that when using   bit integers  but     not familiar   all with assembly      was hoping for help     what   the most efficient way   make something like      uint _t     mulhi           </t>
@@ -868,7 +724,10 @@
     <t>['c++', 'assembly', '64-bit', 'multiplication']</t>
   </si>
   <si>
-    <t>['integer', 'value']</t>
+    <t>c++ uint uint yield uint value low multiplication mod high multiplication assembly instruction bit integer familiar assembly hope efficient uint mulhi high bit integer multiplication</t>
+  </si>
+  <si>
+    <t>[('c++',)]</t>
   </si>
   <si>
     <t xml:space="preserve">       running     bit windows    and   set   pyinstaller with pip and pywin     have python           made   simple hello world program with this code     print  hello world          put the file   the same directory   pyinstaller  and ran this code   the command prompt     pyinstaller   helloworld        yet  when   try that    get this error message      error loading python dll  c  progra   pyinst     build hellow   python  dll  error code         what     doing wrong and how     fix this   </t>
@@ -880,13 +739,7 @@
     <t>['python-2.7', 'pyinstaller']</t>
   </si>
   <si>
-    <t>['c', 'string', 'file', 'error', 'set', 'python', 'print']</t>
-  </si>
-  <si>
-    <t>['print', 'pip', 'run', 'python', 'program', 'command', 'window']</t>
-  </si>
-  <si>
-    <t>['python-2.7']</t>
+    <t>run bit window set pyinstaller pip pywin python hello world program print hello world file directory pyinstaller run command prompt pyinstaller helloworld error message error load python dll c progra pyinst hellow python dll error fix pyinstaller working helloworld program</t>
   </si>
   <si>
     <t xml:space="preserve">     trying   resolve    message sent   deallocated instance   error   ios   </t>
@@ -898,18 +751,15 @@
     <t>['ios', 'xcode', 'lldb']</t>
   </si>
   <si>
-    <t>['date']</t>
-  </si>
-  <si>
-    <t>['error', 'message', 'send', 'command']</t>
+    <t>resolve message send deallocate error io lldb equivalent gdb info malloc history command</t>
+  </si>
+  <si>
+    <t>['ios', 'xcode']</t>
   </si>
   <si>
     <t>[('ios',)]</t>
   </si>
   <si>
-    <t>['ios', 'xcode']</t>
-  </si>
-  <si>
     <t xml:space="preserve">   saw this sticky header   this website          longer active   view archived site       when you scroll down the sticky header comes down from the top       looked   the code  but   looks really complicated    only understand this  the normal header was cloned with   and when you scroll down the page   animates from top   </t>
   </si>
   <si>
@@ -919,7 +769,7 @@
     <t>['javascript', 'jquery', 'header', 'sticky']</t>
   </si>
   <si>
-    <t>['image', 'page', 'scroll']</t>
+    <t>sticky header website long active archive site scroll sticky header come complicated normal header clone scroll page animate sticky header scroll</t>
   </si>
   <si>
     <t>['javascript', 'jquery']</t>
@@ -934,13 +784,7 @@
     <t>['python', 'list', 'dictionary', 'zip']</t>
   </si>
   <si>
-    <t>['app', 'create']</t>
-  </si>
-  <si>
-    <t>['list', 'dict']</t>
-  </si>
-  <si>
-    <t>['python', 'list']</t>
+    <t>list different length long dictionary member key member value soon member start begin c dict zip print expect output c achieve c create dictionary zipping list uneven length</t>
   </si>
   <si>
     <t xml:space="preserve">   have   web api method that looks   bit like this        httppost   public responsemessageresult post thing thing      var content     r    var httpresponsemessage   request createresponse httpstatuscode accepted  content    return responsemessage httpresponsemessage             some other client code  when   call       var content   httpresponsemessage content readasstringasync   result        content             r       but   would like     remain   the original         r       why   the client receiving   doubly escaped string and how can   prevent   happening   </t>
@@ -952,10 +796,7 @@
     <t>['c#', 'asp.net-web-api']</t>
   </si>
   <si>
-    <t>['string', 'result', 'r', 'return', 'var', 'method', 'public']</t>
-  </si>
-  <si>
-    <t>['public', 'string', 'result', 'return', 'var', 'method']</t>
+    <t>web api method bit httppost public responsemessageresult post var content r var httpresponsemessage request createresponse httpstatuscode accept content return responsemessage httpresponsemessage client var content httpresponsemessage content readasstringasync result content r remain original r client receive doubly escape string prevent happen prevent readasstringasync return doubly escape string</t>
   </si>
   <si>
     <t xml:space="preserve">   have some problems with   developer certificate and profile    have certificate   developer program     office mac    want   develop and test the app     device   home      have added   device and generated provision profile from office mac  download and install   cer and provision     home mac  but   saw the error      the identity  iphone developer  doesn   match any valid  non expired certificate private key pair   your keychains      how   transfer keys from office mac     home mac   </t>
@@ -967,10 +808,7 @@
     <t>['ios', 'objective-c', 'swift', 'xcode', 'provisioning-profile']</t>
   </si>
   <si>
-    <t>['string', 'test', 'error']</t>
-  </si>
-  <si>
-    <t>['device', 'mac', 'app', 'develop', 'certificate', 'download', 'developer', 'iphone']</t>
+    <t>developer certificate profile certificate developer program office mac develop test app device home device generate provision profile office mac download install cer provision home mac error identity iphone developer match valid non expire certificate key pair keychain transfer key office mac home mac io developer program certificate transfer</t>
   </si>
   <si>
     <t>['ios', 'objective-c', 'swift', 'xcode']</t>
@@ -985,13 +823,7 @@
     <t>['javascript', 'twitter-bootstrap-3', 'typeahead.js']</t>
   </si>
   <si>
-    <t>['app', 'text', 'input']</t>
-  </si>
-  <si>
-    <t>['input', 'option', 'possible', 'text', 'value']</t>
-  </si>
-  <si>
-    <t>['javascript', 'twitter-bootstrap-3']</t>
+    <t>typeahead autocomplete text input great activate dropdown menu available option input focus possible involve initialize input value option achieve twitter typeahead option focus</t>
   </si>
   <si>
     <t xml:space="preserve">     doing some performance analysis  and   wonder  whether  numpy  vectorizes its standard array operations  when the datatype   known  double               some numpy arrays  c     +      this vectorized       edit    this operation vectorized       will the computation consist   simd operations   </t>
@@ -1003,13 +835,10 @@
     <t>['python', 'python-3.x', 'numpy']</t>
   </si>
   <si>
-    <t>['c', 'file']</t>
-  </si>
-  <si>
-    <t>['operation', 'array', 'edit', 'numpy']</t>
-  </si>
-  <si>
-    <t>[('numpy',)]</t>
+    <t>performance analysis wonder numpy vectorize standard array operation datatype double numpy array c vectorize edit operation vectorize computation consist simd operation numpy basic operation vectorize simd operation</t>
+  </si>
+  <si>
+    <t>['python', 'python-3.x']</t>
   </si>
   <si>
     <t xml:space="preserve"> how   automatically monitor        and other source code files   restart   django    any other for that matter  application and refresh the browser when the source changes  this   possible   rails using guard      apps using grunt contrib watch and the accompanying livereload browser plugin  how can       for python web apps such   django       start   django server with     foreman start      this     procfile      web  newrelic admin run program gunicorn app wsgi        suggested   the heroku newrelic docs   the usual     python manage   runserver      the  runserver  method does restart the server      source changes  but not the browser and doesn   watch other files     could run guard alongside    but then   have two processes   have   take care    whereas grunt   rake offer unified interfaces      wondering what   the recommended way   doing this among python developers       could not find any detailed  comprehensive documentation   this   only incomplete discussions  here  and  there    </t>
@@ -1021,18 +850,15 @@
     <t>['python', 'django', 'web-applications', 'livereload']</t>
   </si>
   <si>
-    <t>['python', 'string', 'file', 'method']</t>
-  </si>
-  <si>
-    <t>['python', 'start', 'program', 'run']</t>
+    <t>automatically monitor source file restart django matter application refresh browser source possible rail guard app grunt contrib watch accompany livereload browser plugin python web app django start django server foreman start procfile web newrelic admin run program gunicorn app wsgi suggest heroku newrelic docs usual python manage runserver runserver method restart server source browser watch file run guard alongside process care grunt rake offer unified interface wonder recommend python developer comprehensive documentation incomplete discussion automatically reload django file</t>
+  </si>
+  <si>
+    <t>['python', 'django']</t>
   </si>
   <si>
     <t>[('django', 'python')]</t>
   </si>
   <si>
-    <t>['python', 'django']</t>
-  </si>
-  <si>
     <t xml:space="preserve">     trying   implement  listener bindings   but when   run   code   get the following error     caused    android databinding tool util loggederrorexception  found data binding errors        data binding error     msg cannot find the setter for attribute  android onclick  with parameter type lambda   android widget button  file   githubbrowser app src main res layout loading_state xml loc                 data binding error          this   the layout file   question        xml version  quot     quot  encoding  quot utf   quot       layout xmlns android  quot http   schemas android com apk res android quot   xmlns app  quot http   schemas android com apk res auto quot        data      import type  quot com example app data model resource quot        import type  quot com example app data model status quot        variable name  quot resource quot  type  quot resource quot        variable name  quot callback quot  type  quot com example app   common retrycallback quot         data       linearlayout  android layout_width  quot wrap_content quot   android layout_height  quot wrap_content quot   android orientation  quot vertical quot   android gravity  quot center quot   android padding  quot  dimen default_margin quot        button android    quot  +  retry quot   android layout_width  quot wrap_content quot   android layout_height  quot wrap_content quot   android text  quot  string retry quot   android onclick  quot          callback retry    quot          linearlayout       layout       and this   the  retrycallback  interface referenced   the layout     package com example app   common  interface retrycallback     fun retry            edit   the top level  build gradle      buildscript    ext android_tools_version          alpha    ext kotlin_version              repositories    maven   url  https   maven google com     jcenter       dependencies    classpath  quot com android tools build gradle  android_tools_version quot   classpath  quot org jetbrains kotlin kotlin gradle plugin  kotlin_version quot       note    not place your application dependencies here  they belong       the individual module build gradle files       ext    architecture_version          alpha    constraint_version            dagger_version          espresso_version            glide_version            junit_version          mockito_version            mock_server_version            moshi_version            retrofit_version            support_version            timber_version              allprojects    repositories    jcenter    mavencentral    maven   url  https   maven google com          task clean type  delete     delete rootproject builddir       and the app module  build gradle      apply plugin   com android application  apply plugin   kotlin android  apply plugin   kotlin kapt   android    compilesdkversion    buildtoolsversion  quot       quot   defaultconfig    applicationid  quot com example app quot   minsdkversion    targetsdkversion    versioncode    versionname  quot     quot   testinstrumentationrunner  quot android support test runner androidjunitrunner quot      buildtypes    debug    testcoverageenabled  project hasproperty  android injected invoked from ide       release    minifyenabled false  proguardfiles getdefaultproguardfile  proguard android txt     proguard rules pro         databinding    enabled   true     compileoptions    sourcecompatibility javaversion version_ _   targetcompatibility javaversion version_ _        kapt    generatestubs   true    dependencies    compile  quot org jetbrains kotlin kotlin stdlib jre   kotlin_version quot    compile  quot com android support appcompat     support_version quot   compile  quot com android support cardview     support_version quot   compile  quot com android support design  support_version quot   compile  quot com android support recyclerview     support_version quot   compile  quot com android support constraint constraint layout  constraint_version quot    compile  quot android arch lifecycle extensions  architecture_version quot   compile  quot android arch lifecycle runtime  architecture_version quot   compile  quot android arch persistence room runtime  architecture_version quot    compile  quot com google dagger dagger  dagger_version quot   compile  quot com google dagger dagger android  dagger_version quot   compile  quot com google dagger dagger android support  dagger_version quot    compile  quot com squareup moshi moshi  moshi_version quot   compile  quot com squareup retrofit  retrofit  retrofit_version quot   compile  quot com squareup retrofit  converter moshi  retrofit_version quot    compile  quot com github bumptech glide glide  glide_version quot    compile  quot com jakewharton timber timber  timber_version quot    kapt  quot com android databinding compiler  android_tools_version quot   kapt  quot com google dagger dagger android processor  dagger_version quot   kapt  quot com google dagger dagger compiler  dagger_version quot   kapt  quot android arch persistence room compiler  architecture_version quot   kapt  quot android arch lifecycle compiler  architecture_version quot    testcompile  quot junit junit  junit_version quot   testcompile  quot com squareup okhttp  mockwebserver  mock_server_version quot   testcompile   quot android arch core core testing  architecture_version quot      exclude group   com android support   module   support compat   exclude group   com android support   module   support annotations   exclude group   com android support   module   support ccore utils        androidtestcompile  quot com android support appcompat     support_version quot   androidtestcompile  quot com android support cardview     support_version quot   androidtestcompile  quot com android support design  support_version quot   androidtestcompile  quot com android support recyclerview     support_version quot    androidtestcompile   quot com android support test espresso espresso core  espresso_version quot      exclude group   com android support   module   support annotations   exclude group   com google code findbugs   module   jsr         androidtestcompile   quot com android support test espresso espresso contrib  espresso_version quot      exclude group   com android support   module   support annotations   exclude group   com google code findbugs   module   jsr         androidtestcompile  quot org mockito mockito android  mockito_version quot       </t>
   </si>
   <si>
@@ -1042,13 +868,7 @@
     <t>['android', 'kotlin', 'android-databinding']</t>
   </si>
   <si>
-    <t>['type', 'button', 'text', 'file', 'datum', 'run', 'google', 'app', 'error', 'test', 'url', 'application', 'android', 'com']</t>
-  </si>
-  <si>
-    <t>['version', 'gradle', 'xmlns', 'layout', 'google', 'appcompat', 'compile', 'layout_width', 'linearlayout', 'com', 'wrap_content', 'project', 'dependency', 'recyclerview', 'tool', 'button', 'support', 'app', 'widget', 'layout_height', 'application', 'android', 'xml', 'cardview']</t>
-  </si>
-  <si>
-    <t>['android', 'kotlin']</t>
+    <t>implement listener binding run error cause android databinde tool util loggederrorexception datum bind error datum bind error msg setter attribute android onclick parameter type lambda android widget button file githubbrows app src main res layout loading_state xml loc datum bind error layout file xml version encoding utf layout xmlns android http schemas android com apk android xmlns app http schemas android com apk auto datum import type com example app datum model resource import type com example app datum model status variable resource type resource variable callback type com example app common retrycallback datum linearlayout android layout_width wrap_content android layout_height wrap_content android orientation vertical android gravity center android pad diman default_margin button android retry android layout_width wrap_content android layout_height wrap_content android text string retry android onclick callback retry linearlayout layout retrycallback interface reference layout package com example app common interface retrycallback fun retry edit level gradle buildscript ext android_tools_version alpha ext kotlin_version repository maven url https maven google com jcenter dependency classpath com android tool gradle android_tools_version classpath org jetbrain kotlin kotlin gradle plugin kotlin_version note place application dependency belong individual module gradle file ext architecture_version alpha constraint_version dagger_version espresso_version glide_version junit_version mockito_version mock_server_version moshi_version retrofit_version support_version timber_version allproject repositorie jcenter mavencentral maven url https maven google com task clean type delete delete rootproject builddir app module gradle apply plugin com android application apply plugin kotlin android apply plugin kotlin kapt android compilesdkversion buildtoolsversion defaultconfig applicationid com example app minsdkversion targetsdkversion versioncode versionname testinstrumentationrunner android support test runner androidjunitrunner buildtype debug testcoverageenable project hasproperty android inject invoke ide release minifyenable proguardfile getdefaultproguardfile proguard android txt proguard rule pro databinde enabled compileoption sourcecompatibility javaversion version targetcompatibility javaversion version kapt generatestub dependency compile org jetbrain kotlin kotlin stdlib jre kotlin_version compile com android support appcompat support_version compile com android support cardview support_version compile com android support design support_version compile com android support recyclerview support_version compile com android support constraint constraint layout constraint_version compile android arch lifecycle extension architecture_version compile android arch lifecycle runtime architecture_version compile android arch persistence room runtime architecture_version compile com google dagger dagger dagger_version compile com google dagger dagger android dagger_version compile com google dagger dagger android support dagger_version compile com squareup moshi moshi moshi_version compile com squareup retrofit retrofit retrofit_version compile com squareup retrofit converter moshi retrofit_version compile com github bumptech glide glide glide_version compile com jakewharton timber timber timber_version kapt com android databinde compiler android_tools_version kapt com google dagger dagger android processor dagger_version kapt com google dagger dagger compiler dagger_version kapt android arch persistence room compiler architecture_version kapt android arch lifecycle compiler architecture_version testcompile junit junit junit_version testcompile com squareup okhttp mockwebserver mock_server_version testcompile android arch core core testing architecture_version exclude group com android support module support compat exclude group com android support module support annotation exclude group com android support module support ccore util androidtestcompile com android support appcompat support_version androidtestcompile com android support cardview support_version androidtestcompile com android support design support_version androidtestcompile com android support recyclerview support_version androidtestcompile com android support test espresso espresso core espresso_version exclude group com android support module support annotation exclude group com google findbug module jsr androidtestcompile com android support test espresso espresso contrib espresso_version exclude group com android support module support annotation exclude group com google findbug module jsr androidtestcompile org mockito mockito android mockito_version listener binding setter</t>
   </si>
   <si>
     <t xml:space="preserve">     trying   understand bulk_create   django    this was   original query     trying   convert      for         msg   message objects create   recipient_number   mobile   content batch content   sender   contact_owner   billee batch user   sender_name batch sender_name         does that mean doing the following  below  will loop and create all the entries first then hit the database    this right      msg   message objects bulk_create    message    recipient_number   mobile   content batch content   sender   contact_owner   billee batch user   sender_name batch sender_name           </t>
@@ -1060,10 +880,7 @@
     <t>['python', 'django', 'django-models']</t>
   </si>
   <si>
-    <t>['color']</t>
-  </si>
-  <si>
-    <t>['error', 'create', 'message', 'user', 'database', 'object']</t>
+    <t>bulk_create django original query convert msg message object create recipient_number mobile content batch content sender contact_owner billee batch user sender_name batch sender_name mean loop create entry hit database msg message object bulk_create message recipient_number mobile content batch content sender contact_owner billee batch user sender_name batch sender_name django bulk_create function example</t>
   </si>
   <si>
     <t>[('django',)]</t>
@@ -1075,10 +892,7 @@
     <t xml:space="preserve">java check input positive integer negative integer natural number and </t>
   </si>
   <si>
-    <t>['app', 'type', 'input', 'work', 'user', 'class']</t>
-  </si>
-  <si>
-    <t>['method', 'public', 'import', 'integer', 'main', 'java', 'util']</t>
+    <t>method java user input type positive negative work input method statement import java util scanner public class compare public static main string args scanner input scanner print enter number int number input nextint number int println number natural positive java input positive integer negative integer natural number</t>
   </si>
   <si>
     <t xml:space="preserve"> attempting   reduce boilerplate      declaring some sort   generic function interface     type  then   want   declare    const    such type     why typescript assumes that  foo  declaration   legit and  bar    not  aren   these declarations practically identical    typescript lacking simple feature       missing some details    there any workarounds        not want explicitly repeat  functiontype  interface      type functiontype  tvalue      value  tvalue      void   const foo     tvalue   value  tvalue   void            const bar  functiontype  tvalue      value           cannot find name  tvalue         </t>
@@ -1090,10 +904,7 @@
     <t>['typescript', 'types']</t>
   </si>
   <si>
-    <t>['type', 'string', 'value', 'function']</t>
-  </si>
-  <si>
-    <t>['type', 'bar', 'typescript', 'value']</t>
+    <t>attempt reduce boilerplate declare sort generic function interface type declare const type typescript assume declaration legit bar declaration practically identical typescript lack feature miss workaround explicitly repeat functiontype interface type functiontype tvalue value tvalue const tvalue value tvalue const bar functiontype tvalue value tvalue declare const generic type</t>
   </si>
   <si>
     <t>[('typescript',)]</t>
@@ -1108,10 +919,7 @@
     <t>['android', 'ios', 'camera', 'nativescript']</t>
   </si>
   <si>
-    <t>['work', 'file', 'module', 'application', 'android']</t>
-  </si>
-  <si>
-    <t>['application', 'android']</t>
+    <t>work io android application custom camera camera module camera preview nativescript module plugin feature hard write module nativescript custom camera</t>
   </si>
   <si>
     <t>['android', 'ios']</t>
@@ -1126,10 +934,7 @@
     <t>['java', 'android', 'android-4.2-jelly-bean', 'android-launcher']</t>
   </si>
   <si>
-    <t>['app', 'work', 'file', 'android']</t>
-  </si>
-  <si>
-    <t>['app', 'android', 'xml']</t>
+    <t>work custom launcher android referred android jellybean launcher modification launcher default work space screen custom workspace screen xml file inflated screen default launcher complex luck app soho playstore exactly screenshot referencing custom android jellybean launcher</t>
   </si>
   <si>
     <t>['java', 'android']</t>
@@ -1144,10 +949,10 @@
     <t>['asp.net', 'regex']</t>
   </si>
   <si>
-    <t>['text', 'image', 'box']</t>
-  </si>
-  <si>
-    <t>[('regex',)]</t>
+    <t>regular expression text box allow dash character allow dash regular expression</t>
+  </si>
+  <si>
+    <t>['asp.net']</t>
   </si>
   <si>
     <t xml:space="preserve">     possible duplicate      modify the url without reloading the page              looking for   way   make   internal links functional using   current javascript animations  without causing the page   reload when you click   them    but   would like the url   update   the browser      many websites   this  here     good example         how   they get the url   update without the page reloading        more details     currently   link     page looks like      href   aboutus   about           this takes you      div    aboutus      div    via javascript     the javascript looks something like          navigation     click function      animate   scroll   section        preventdefault                               believe the    preventdefault      what   causing the url   not   updated  but how     prevent the browser from reloading the page when the url   changed     how   other websites      what   this method called      can further research        thanks   </t>
@@ -1159,15 +964,15 @@
     <t>['javascript', 'html', 'url']</t>
   </si>
   <si>
-    <t>['app', 'javascript', 'page', 'function', 'bar', 'url', 'link']</t>
-  </si>
-  <si>
-    <t>['error', 'update', 'page', 'url', 'browser', 'method']</t>
+    <t>possible duplicate modify url reloading page internal link functional javascript animation cause page reload url update browser website example url update page reload currently link page href aboutus aboutus javascript javascript navigation function animate scroll section preventdefault believe preventdefault cause url update prevent browser reloading page url website method research url browser address bar reload page</t>
   </si>
   <si>
     <t>['javascript', 'html']</t>
   </si>
   <si>
+    <t>[('html', 'javascript')]</t>
+  </si>
+  <si>
     <t xml:space="preserve">   was implementing   singleton pattern here     creating   new instance   singleton    getinstance  when   try and delete     the destructor    does   infinite loop  how   avoid memory leak   this case       please refer the below piece   code       define null   class singleton   private   static singleton  m_pinstance  singleton      public     static singleton  getinstance         m_pinstance    null      m_pinstance   new singleton       return m_pinstance        singleton        delete m_pinstance     the system goes   infinate loop here     uncomment this m_pinstance   null         singleton  singleton   m_pinstance   null  int main      singleton  pinstance   singleton  getinstance     delete pinstance       </t>
   </si>
   <si>
@@ -1177,10 +982,7 @@
     <t>['c++', 'singleton']</t>
   </si>
   <si>
-    <t>['case', 'int', 'return', 'public', 'pointer', 'static', 'main']</t>
-  </si>
-  <si>
-    <t>[('c++',)]</t>
+    <t>implement singleton pattern create singleton getinstance delete destructor infinite loop avoid memory leak case refer piece define class singleton static singleton m_pinstance singleton public static singleton getinstance m_pinstance m_pinstance singleton return m_pinstance singleton delete m_pinstance infinate loop uncomment m_pinstance singleton singleton m_pinstance int main singleton pinstance singleton getinstance delete pinstance delete singleton pointer</t>
   </si>
   <si>
     <t xml:space="preserve">     trying   create   wordpress plugin  and   would like   have jquery   tabs   one     settings pages       already have the scripting code set      wp_enqueue_script  jquery       enque jquery wp_enqueue_script  jquery   core       enque jquery   core wp_enqueue_script  jquery   tabs       enque jquery   tabs         and   have created the html and javascript too  until here all are fine     the question       the wordpress platform comes with some scripts already pre installed like the one   have enqueue above    script runs fine with the tabs  but     not styled    what     trying   ask  does the wordpress platform come with jquery   theme pre installed     and      how     enqueue the style into   plugin   </t>
@@ -1192,25 +994,22 @@
     <t>['jquery', 'jquery-ui', 'wordpress', 'jquery-ui-css-framework']</t>
   </si>
   <si>
-    <t>['jquery', 'javascript', 'html', 'create', 'set', 'file', 'run', 'app', 'page', 'css', 'style']</t>
-  </si>
-  <si>
-    <t>['jquery', 'javascript', 'script', 'html', 'set', 'page', 'css', 'image', 'style']</t>
+    <t>create wordpress plugin jquery tab setting page script set wp_enqueue_script jquery enque jquery wp_enqueue_script jquery core enque jquery core wp_enqueue_script jquery tab enque jquery tab create html javascript fine wordpress platform come script pre instal enqueue script run fine tab style ask wordpress platform come jquery theme pre instal enqueue style plugin wordpress jquery css file</t>
+  </si>
+  <si>
+    <t>['jquery']</t>
   </si>
   <si>
     <t>[('javascript', 'jquery')]</t>
   </si>
   <si>
-    <t>['jquery']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> say   have   array   r    c                    upon sorting  this would      c                       what   the best way   r   return the indices for the sorted array elements from the original array      looking for   output like      index         index         index         index         index         index        </t>
   </si>
   <si>
     <t>how get index sorted array elements</t>
   </si>
   <si>
-    <t>['output', 'return', 'index', 'array', 'sort']</t>
+    <t>array r c sorting c r return index sort array original array output index index index index index index index sort array</t>
   </si>
   <si>
     <t>[('arrays',)]</t>
@@ -1225,10 +1024,7 @@
     <t>['android', 'wifi-direct', 'service-discovery', 'wifip2p', 'dns-sd']</t>
   </si>
   <si>
-    <t>['string', 'map', 'int', 'datum', 'value', 'public', 'error', 'work', 'amp']</t>
-  </si>
-  <si>
-    <t>['public', 'string', 'map', 'tostre', 'key']</t>
+    <t>wifi service discovery behave expect intermittent issue dnssd listener clue nearby device run app apis register service discover device discover nearby service run device specific sequence android api apis ensure listener service register service register api discover local service api register local service registerservice map string string value hashmap string string value steve value port wifip pserviceinfo srvcinfo wifip pdnssdserviceinfo newinstance mmydevice devicename value manager addlocalservice channel srvcinfo wifip pmanager actionlistener override public onsuccess toast maketext wifidirectactivity local service successfully toast length_short override public onfailure int reasoncode toast maketext wifidirectactivity local service addition fail reasoncode toast length_short api discover local service public discoverservice manager clearservicerequest channel dnssdtxtrecordlistener txtlistener dnssdtxtrecordlistener override callback include fulldomain domain printer ipp tcp local record txt record datum map key value pair device device run advertised service public ondnssdtxtrecordavailable string fulldomain map record wifip pdevice device log tag dnssdtxtrecord available record tostre dnssdserviceresponselisten servlistener dnssdserviceresponselisten override public ondnssdserviceavailable string instancename string registrationtype wifip pdevice resourcetype log tag onbonjourserviceavailable instancename manager setdnssdresponselistener channel servlistener txtlistener wifip pdnssdservicerequest servicerequ wifip pdnssdservicerequest newinstance manager addservicerequest channel servicerequ actionlistener override public onsuccess success log tag addservicerequ success override public onfailure int command fail p_unsupporte error busy log tag addservicerequ failure manager discoverservice channel actionlistener override public onsuccess success log tag discoverservice success override public onfailure int command fail p_unsupporte error busy wifip pmanager p_unsupporte log tag support device log tag discoverservice failure note manager amp channel initialize wifip pmanager manager wifip pmanager getsystemservice wifi_p p_service channel channel manager initialize getmainlooper wifi service discovery work intermittently</t>
   </si>
   <si>
     <t xml:space="preserve">     using jquery   and would like   position   dialog horizontally centered but vertically above center  maybe     fixed amount   pixels     relative distance from the top   the page    there   easy way     this    looks like there are just   couple pre defined values     can use   exact position but   there   easy way   accomplish this            dialog form   dialog    autoopen  false   width      position   center    modal  true   resizable  false   closeonescape  false          </t>
@@ -1240,10 +1036,7 @@
     <t>['jquery', 'html', 'css', 'jquery-ui', 'jquery-ui-dialog']</t>
   </si>
   <si>
-    <t>['string', 'value']</t>
-  </si>
-  <si>
-    <t>['jquery', 'width', 'page', 'image', 'center', 'position']</t>
+    <t>jquery position dialog horizontally center vertically center maybe fix pixel relative distance page easy couple pre define value exact position easy accomplish dialog form dialog autoopen width position center modal resizable closeonescape jqueryui dialog positioning</t>
   </si>
   <si>
     <t>['jquery', 'html', 'css']</t>
@@ -1258,10 +1051,7 @@
     <t>['c#', '.net', 'system.net.mail', 'mailmessage']</t>
   </si>
   <si>
-    <t>['height']</t>
-  </si>
-  <si>
-    <t>['error', 'google', 'com']</t>
+    <t>multiple address mailaddress mailaddressto mailaddress sample google com sample google com vetrivelmp throw error invalid character mail header multiple address mailaddress constructor</t>
   </si>
   <si>
     <t>['c#', '.net']</t>
@@ -1276,10 +1066,7 @@
     <t>['android', 'crash-reports', 'android-7.0-nougat', 'google-play-console']</t>
   </si>
   <si>
-    <t>['date', 'number']</t>
-  </si>
-  <si>
-    <t>['app', 'device', 'play', 'work', 'apk', 'native']</t>
+    <t>receive handful crash report play console title signal sigtrap trap_brkpt webview apk backtrace native app webview webview apk native app webview webview apk information available significant number crash small basically sound report android device begin work crash occur post probably vast majority device choke case bit insight hint reproduce crash device similar answer signal sigtrap trap_brkpt relate webview apk</t>
   </si>
   <si>
     <t xml:space="preserve"> does anyone know what the  redo  keyboard shortcut for eclipse           using linux mint based   ubuntu and   all   programming there    noticed eclipse supports c  java  php  html  python    code   all   these languages     thought         nice ide   use  but the redo shortcut   really important        just use  ctrl + shift +    for redo   gedit  but   does not work   eclipse    </t>
@@ -1291,16 +1078,10 @@
     <t>['eclipse', 'keyboard-shortcuts', 'ctrl', 'redo']</t>
   </si>
   <si>
-    <t>['python', 'c', 'work', 'eclipse', 'file', 'java']</t>
-  </si>
-  <si>
-    <t>['java', 'eclipse', 'ide']</t>
-  </si>
-  <si>
-    <t>[('eclipse',)]</t>
-  </si>
-  <si>
-    <t>['eclipse']</t>
+    <t>redo keyboard shortcut eclipse linux mint base ubuntu programming notice eclipse support c java php html python language nice ide redo shortcut important ctrl shift redo gedit work eclipse redo keyboard shortcut eclipse</t>
+  </si>
+  <si>
+    <t>[('php',)]</t>
   </si>
   <si>
     <t xml:space="preserve"> say   want   calculate   value for every point     grid    would define some function  func  that takes two values     and       parameters and returns   third value    the example below  calculating this value requires   look       external dictionary    would then generate   grid   points and evaluate  func    each   them   get   desired result     the code below does precisely this  but     somewhat roundabout way  first   reshape both the   and   coordinate matrices into one dimensional arrays  calculate all the values  and then reshape the result back into   matrix    questions    can this   done     more elegant manner      import collections   c    some arbitrary lookup table     c defaultdict int                                       def func          some arbitrary function  return      +               mgrid                                  array  func      for         zip   ravel      ravel      reshape   shape  print        the purpose   this code     generate   set   values that   can use with  pcolor    matplotlib   create   heatmap type plot   </t>
@@ -1312,13 +1093,7 @@
     <t>['python', 'numpy', 'matplotlib']</t>
   </si>
   <si>
-    <t>['type', 'string', 'create', 'result', 'int', 'set', 'function', 'example', 'print', 'return', 'value', 'c', 'python', 'parameter', 'array']</t>
-  </si>
-  <si>
-    <t>['type', 'set', 'example', 'print', 'return', 'value', 'dictionary', 'parameter']</t>
-  </si>
-  <si>
-    <t>['python', 'numpy']</t>
+    <t>calculate value point grid define function func value parameter return value example calculate value require external dictionary generate grid point evaluate func desire result precisely somewhat roundabout reshape coordinate matrix dimensional array calculate value reshape result matrix elegant manner import collection c arbitrary lookup table c defaultdict int def func arbitrary function return mgrid array func zip ravel ravel reshape shape print purpose generate set value pcolor matplotlib create heatmap type plot apply function python meshgrid</t>
   </si>
   <si>
     <t xml:space="preserve"> when using   for   loop  both   these are allowed and work     const numbers               works for let number   numbers     console log number        also works for const number   numbers     console log number           always use  const  since   annot fanthom changing the  number  variable   any context  but when   see    for      loop   other people   code    often uses  let   maybe there     drawback    const  that   didn   see  browser bugs    why use  const  and when   use  let     for      loops   </t>
@@ -1330,10 +1105,7 @@
     <t>['javascript', 'ecmascript-6', 'for-of-loop']</t>
   </si>
   <si>
-    <t>['string', 'variable', 'work', 'number', 'loop']</t>
-  </si>
-  <si>
-    <t>['const', 'variable', 'int', 'number']</t>
+    <t>loop allow work const number work number number console log number work const number number console log number const annot fanthom number variable loop people maybe drawback const browser bug const loop loop const</t>
   </si>
   <si>
     <t xml:space="preserve"> sorry for the simple question but       vacation reading   book   core audio  and don   have   c   objective c books with         what are the curly braces doing   this variable definition      myrecorder recorder           </t>
@@ -1345,7 +1117,7 @@
     <t>['objective-c', 'c', 'initialization', 'structure']</t>
   </si>
   <si>
-    <t>['c', 'string', 'variable']</t>
+    <t>vacation reading book core audio c objective c book curly brace variable definition myrecorder recorder odd curly brace c</t>
   </si>
   <si>
     <t>['objective-c', 'c']</t>
@@ -1360,10 +1132,7 @@
     <t>['python', 'graph', 'graphviz', 'networkx', 'pygraphviz']</t>
   </si>
   <si>
-    <t>['version', 'script', 'package', 'instal', 'file', 'module', 'python', 'error', 'test', 'import', 'c', 'work']</t>
-  </si>
-  <si>
-    <t>['version', 'script', 'example', 'traceback', 'python', 'import', 'recent', 'lib', 'site', 'package', 'usr', 'instal', 'print', 'module', 'write']</t>
+    <t>work learn python graph visualization blog post unfortunately far encounter error attributeerror module object attribute graphviz_layout simplest snip reproduce error import networkx complete_graph draw_graphviz attributeerror traceback recent amp ipython input c c amp amp module amp amp draw_graphviz usr lib python site package networkx draw nx_pylab pyc draw_graphviz prog kwargs networkx draw_networkx description optional keyword amp pos draw graphviz_layout prog draw pos kwargs attributeerror module object attribute graphviz_layout similar post difficulty combo error close automagically resolve verify required package networkx pygraphviz list similar requirement scipy instal snip test installation module python example networkx reference documentation list example snip matplotlib graphviz matplotlib example work render image screen import networkx complete_graph import matplotlib pyplot plt draw plt graphviz snip produce similar error import networkx complete_graph from_agraph attributeerror traceback recent ipython input cefaa module from_agraph attributeerror module object attribute from_agraph to_agraph attributeerror traceback recent ipython input module to_agraph attributeerror module object attribute to_agraph print complete_graph pygraphviz tutorial page layout amp draw snip pygraphviz pass neato default pydot circo post script output gimp difference pygraphviz example render display file import pygraphviz pgv pgv agraph write pygraphviz_test dot layout draw pygraphviz_test png complexity pygraphviz require graphviz package binary order work arch linux instal distro version arch linux example test installation output file pass missing cause networkx amp pygraphviz work fine cause networkx pygraphviz work fine</t>
   </si>
   <si>
     <t xml:space="preserve"> any call    npm run  produces this error        npm run dev       dev  project    npm run development        development  project    cross env node_env development node_modules webpack bin webpack     progress   hide modules   config node_modules laravel mix setup webpack config     project node_modules webpack cli bin cli      throw err      error  cannot find module  sass     function module _resolvefilename  internal modules cjs loader           function module _load  internal modules cjs loader           module require  internal modules cjs loader           require   project node_modules    compile cache    compile cache           implementation   project node_modules laravel mix src components sass           implementation   project node_modules laravel mix src components preprocessor           global tap   project node_modules laravel mix src helpers           sass loaderoptions   project node_modules laravel mix src components preprocessor           extractplugin   project node_modules laravel mix src components preprocessor           global tap   project node_modules laravel mix src helpers           details foreach preprocessor   project node_modules laravel mix src components preprocessor           array foreach    anonymous       sass webpackrules   project node_modules laravel mix src components preprocessor           componentfactory applyrules   project node_modules laravel mix src components componentfactory           mix listen rules   project node_modules laravel mix src components componentfactory           events  anonymous function  foreach handler   project node_modules laravel mix src dispatcher           array foreach    anonymous       dispatcher fire   project node_modules laravel mix src dispatcher           mix dispatch   project node_modules laravel mix src mix           webpackconfig buildrules   project node_modules laravel mix src builder webpackconfig           webpackconfig build   project node_modules laravel mix src builder webpackconfig           object   anonymous     project node_modules laravel mix setup webpack config           module _compile   project node_modules    compile cache    compile cache           object module _extensions     internal modules cjs loader           module load  internal modules cjs loader           trymoduleload  internal modules cjs loader           function module _load  internal modules cjs loader           module require  internal modules cjs loader           require   project node_modules    compile cache    compile cache           webpack_options   project node_modules webpack cli bin convert argv           requireconfig   project node_modules webpack cli bin convert argv            project node_modules webpack cli bin convert argv          array foreach    anonymous       module exports   project node_modules webpack cli bin convert argv           yargs parse   project node_modules webpack cli bin cli           object parse   project node_modules yargs yargs        npm err  code elifecycle npm err  errno   npm err    development   cross env node_env development node_modules webpack bin webpack     progress   hide modules   config node_modules laravel mix setup webpack config    npm err  exit status   npm err  npm err  failed   the   development script  npm err  this   probably not   problem with npm  there   likely additional logging output above       here     package json         private   true    scripts       dev    npm run development     development    cross env node_env development node_modules webpack bin webpack     progress   hide modules   config node_modules laravel mix setup webpack config       watch    npm run development      watch     watch poll    npm run watch      watch poll     hot    cross env node_env development node_modules webpack dev server bin webpack dev server     inline   hot   config node_modules laravel mix setup webpack config       prod    npm run production     production    cross env node_env production node_modules webpack bin webpack       progress   hide modules   config node_modules laravel mix setup webpack config          devdependencies       accounting               axios               bootstrap               bootstrap sass               cross env               css loader               fancybox               jquery               jquery slimscroll               ladda               laravel mix               locutus               metismenu               moment               resolve url loader              sass loader            style loader               vue               vue template compiler               webpack               webpack cli                  dependencies       ajv               bootstrap vue                   bootstrap c chosen               extract text webpack plugin           beta       imagemin               jsonexport               laravel echo               lodash               node sass               pusher                 sweetalert                vue api query               vue events               vue multiselect               vue sweetalert                vuetable             beta       vuex                         webpack mix         const mix   require  laravel mix     mix    resources assets   app      public       sass  resources assets sass app scss    public css     version     sourcemaps             tried deleting  node_modules  and  npm install  again but that doesn   fix             node_modules   package lock json yarn lock npm cache clear   force npm install      doing the same process using  yarn install  instead   npm does not solve       tried installing using this option but   luck   npm install node sass     bin links       npm          node          yarn             this problem does not happen   older version   webpack and mix  for instance  the following packages work but obviously lose some   the newer features       laravel mix          webpack              webpack cli               </t>
@@ -1375,16 +1144,10 @@
     <t>['node.js', 'npm', 'laravel-mix', 'node-sass']</t>
   </si>
   <si>
-    <t>['version', 'script', 'c', 'process', 'log', 'project', 'package', 'dependency', 'instal', 'file', 'npm', 'module', 'run', 'app', 'error', 'install', 'work']</t>
-  </si>
-  <si>
-    <t>['version', 'script', 'object', 'url', 'server', 'json', 'log', 'api', 'fail', 'project', 'node', 'run', 'error', 'install', 'work']</t>
-  </si>
-  <si>
-    <t>[('laravel', 'node.js', 'npm')]</t>
-  </si>
-  <si>
-    <t>['node.js', 'npm']</t>
+    <t>npm run produce error npm run dev dev project npm run development development project cross env node_env development node_modules webpack bin webpack progress hide module config node_module laravel mix setup webpack config project node_modules webpack cli bin cli throw err error module sass function module resolvefilename internal module cjs loader function module load internal module cjs loader module require internal module cjs loader require project node_module compile cache compile cache implementation project node_module laravel mix src component sass implementation project node_module laravel mix src component preprocessor global tap project node_module laravel mix src helper sass loaderoption project node_module laravel mix src component preprocessor extractplugin project node_module laravel mix src component preprocessor global tap project node_module laravel mix src helper foreach preprocessor project node_module laravel mix src component preprocessor array foreach anonymous sass webpackrule project node_module laravel mix src component preprocessor componentfactory applyrule project node_module laravel mix src component componentfactory mix listen rule project node_module laravel mix src component componentfactory event anonymous function foreach handler project node_module laravel mix src dispatch array foreach anonymous dispatch project node_module laravel mix src dispatch mix dispatch project node_module laravel mix src mix webpackconfig buildrule project node_module laravel mix src builder webpackconfig webpackconfig project node_modules laravel mix src builder webpackconfig object anonymous project node_module laravel mix setup webpack config module compile project node_module compile cache compile cache object module extension internal module cjs loader module load internal module cjs loader trymoduleload internal module cjs loader function module load internal module cjs loader module require internal module cjs loader require project node_module compile cache compile cache webpack_option project node_module webpack cli bin convert argv requireconfig project node_module webpack cli bin convert argv project node_modules webpack cli bin convert argv array foreach anonymous module export project node_modules webpack cli bin convert argv yargs parse project node_module webpack cli bin cli object parse project node_module yargs yargs npm err elifecycle npm err errno npm err development cross env node_env development node_modules webpack bin webpack progress hide module config node_module laravel mix setup webpack config npm err exit status npm err npm err fail development script npm err probably npm likely additional log output package json scripts dev npm run development development cross env node_env development node_modules webpack bin webpack progress hide module config node_module laravel mix setup webpack config watch npm run development watch watch poll npm run watch watch poll hot cross env node_env development node_modules webpack dev server bin webpack dev server inline hot config node_modules laravel mix setup webpack config prod npm run production production cross env node_env production node_modules webpack bin webpack progress hide module config node_module laravel mix setup webpack config devdependencie accounting axio bootstrap bootstrap sass cross env css loader fancybox jquery jquery slimscroll ladda laravel mix locutus metismenu moment resolve url loader sass loader style loader vue vue template compiler webpack webpack cli dependency ajv bootstrap vue bootstrap c choose extract text webpack plugin beta imagemin jsonexport laravel echo lodash node sass pusher sweetalert vue api query vue event vue multiselect vue sweetalert vuetable beta vuex webpack mix const mix require laravel mix mix resource asset app public sass resource asset sass app scss public css version sourcemaps delete node_modules npm install fix node_modules package lock json yarn lock npm cache clear force npm install process yarn install npm solve instal option luck npm install node sass bin links npm node yarn happen old version webpack mix package work obviously lose feature laravel mix webpack webpack cli npm run module sass repeat reinstall attempt</t>
+  </si>
+  <si>
+    <t>[('node.js',)]</t>
   </si>
   <si>
     <t xml:space="preserve">   have   cte query filtering   table student      student      studentid     firstname    lastname   genderid   experienceid   nationalityid   cityid         based     lot filters  multiple cities  gender  multiple experiences            multiple nationalites     create   cte   using dynamic sql and joining the student table with   user defined tables   citytable  nationalitytable          after that   have   retrieve the count   student   each filter like     cityid city count  nationalityid nationality count      same thing the other filter     can     something like       with cte   select  from student  inner join      inner join        select cityid city count studentid   from cte  group   cityid city   select genderid gender count  from cte  group   genderid gender        want   something like what linkedin   doing with search people search job search                  fast and   the same thing   </t>
@@ -1396,13 +1159,7 @@
     <t>['sql-server', 'tsql']</t>
   </si>
   <si>
-    <t>['string', 'create']</t>
-  </si>
-  <si>
-    <t>['query', 'create', 'join', 'search', 'table', 'group', 'select', 'count', 'user', 'sql']</t>
-  </si>
-  <si>
-    <t>['sql-server']</t>
+    <t>cte query filter table student student studentid firstname lastname genderid experienceid nationalityid cityid base lot filter multiple city gender multiple experience multiple nationalite create cte dynamic sql join student table user define table citytable nationalitytable retrieve count student filter cityid city count nationalityid nationality count filter cte select student inner join inner join select cityid city count studentid cte group cityid city select genderid gender count cte group genderid gender linkedin search people search job search fast multiple select cte</t>
   </si>
   <si>
     <t xml:space="preserve">   installed      and found that functional that   use every time isn   working anymore ctrl + alt click don       implementation    goes like  ctrl click    declaration    </t>
@@ -1414,10 +1171,7 @@
     <t>['visual-studio', 'visual-studio-2017', 'resharper']</t>
   </si>
   <si>
-    <t>['swift']</t>
-  </si>
-  <si>
-    <t>['error', 'time', 'work']</t>
+    <t>instal functional time work anymore ctrl alt implementation ctrl declaration resharper ctrl alt work visual studio</t>
   </si>
   <si>
     <t xml:space="preserve">  warn  config   config configure     deprecated  please use config set   instead  warn  plugin   cannot find plugin  karma phantomjs    did you forget   install      npm install karma phantomjs   save dev info  karma   karma        server started   http   localhost    warn  launcher   can not load  phantomjs       not registered   perhaps you are missing some plugin       getting this error  when running npm install karma phantomjs   save dev   get   error      npm err     karma phantomjs    not   the npm registry         installed karma phantomjs launcher   save dev but   still get   error when running grunt watch     anyone else run into this issue   </t>
@@ -1429,10 +1183,7 @@
     <t>['phantomjs', 'gruntjs', 'karma-runner']</t>
   </si>
   <si>
-    <t>['http', 'set', 'run', 'error', 'install', 'start', 'server']</t>
-  </si>
-  <si>
-    <t>[('node.js', 'npm')]</t>
+    <t>warn config config configure deprecate config set warn plugin plugin karma phantomj forget install npm install karma phantomjs save dev info karma karma server start http localhost warn launcher load phantomj register miss plugin error run npm install karma phantomjs save dev error npm err karma phantomjs npm registry instal karma phantomjs launcher save dev error run grunt watch run issue install phantomjs karma</t>
   </si>
   <si>
     <t xml:space="preserve">   have   text view     lyout and   would like   set some text   this textview  this should   made     class which   not   mainactivity class     the problem   that   got   null pointer exception     here     code      public class userinformations extends activity   textview emailtextview  localdatabase localdatabase  new localdatabase this      public void getuserinformation       emailtextview    textview  findviewbyid r   emailtextview    string email   localdatabase getuseremail     emailtextview settext email             when     doing this   the main activity class    works  but   doesn   work not   another class   </t>
@@ -1444,10 +1195,7 @@
     <t>['android', 'android-view']</t>
   </si>
   <si>
-    <t>['public', 'findviewbyid', 'r', 'activity', 'mainactivity', 'android', 'textview']</t>
-  </si>
-  <si>
-    <t>['public', 'extend', 'set', 'class']</t>
+    <t>text lyout set text textview class mainactivity class pointer exception public class userinformation extend activity textview emailtextview localdatabase localdatabase localdatabase public getuserinformation emailtextview textview findviewbyid r emailtextview string email localdatabase getuseremail emailtextview settext email main activity class work work class findviewbyid work mainactivity class</t>
   </si>
   <si>
     <t xml:space="preserve">   have two columns   data frame                                        want   count frequency   both columns and get the result   this format          freq                                       </t>
@@ -1456,13 +1204,10 @@
     <t>frequency count two column r</t>
   </si>
   <si>
-    <t>['app', 'datum']</t>
-  </si>
-  <si>
-    <t>['column', 'result', 'count', 'frame', 'datum']</t>
-  </si>
-  <si>
-    <t>[('r',)]</t>
+    <t>column datum frame count frequency column result format freq frequency count column r</t>
+  </si>
+  <si>
+    <t>[('python', 'r')]</t>
   </si>
   <si>
     <t xml:space="preserve">   decided   try   few experiments   see what   could discover about the size   stack frames  and how far through the stack the currently executing code was  there are two interesting questions   might investigate here       how many levels deep into the stack   the current code    how many levels   recursion can the current method reach before   hits    stackoverflowerror        stack depth   currently executing code    here   the best   could come   with for this      public static int levelsdeep      try    throw new somekindofexception       catch  somekindofexception       return   getstacktrace   length            this seems   bit hacky    generates and catches   exception  and then looks   see what the length   the stack trace       unfortunately   also seems   have   fatal limitation  which   that the maximum length   the stack trace returned      anything beyond that gets axed    the maximum that this method can return             question     there   better way   doing this that isn     hacky and doesn   have this limitation       for what     worth    guess   that there isn     throwable getstacktracedepth        native call  which suggests  but doesn   prove  that   can     done   pure java     determining how much more recursion depth   have left    the number   levels   can reach will   determined       size   stack frame  and     amount   stack left  let   not worry about size   stack frame  and just see how many levels   can reach before   hit    stackoverflowerror      here     code for doing this      public static int stackleft      try    return  +stackleft       catch  stackoverflowerror       return                does its job admirably  even       linear   the amount   stack remaining  but here   the very  very weird part      bit java    openjdk      _    the results are perfectly consistent           machine  ubuntu       bit   but oracle   java         _   gives    non deterministic results     get   recorded depth   anywhere between about     and         now why   earth would     non deterministic  there   supposed       fixed stack size  isn   there  and all   the code looks deterministic           wondered whether   was something weird with the error trapping      tried this instead      public static long badsum int                 return     else  return  +badsum              clearly this will either return the input   was given    overflow     again  the results   get are non deterministic   java        call  badsum        will give      stackoverflowerror  about half the time  and return   the other half  but   java   openjdk      consistent   badsum     completes fine  and  badsum     overflows         question   why   the maximum recursion depth non deterministic   oracle   java    and why     deterministic   openjdk       </t>
@@ -1474,10 +1219,7 @@
     <t>['java', 'recursion', 'java-8', 'stack-overflow', 'stack-size']</t>
   </si>
   <si>
-    <t>['app', 'error', 'input']</t>
-  </si>
-  <si>
-    <t>['catch', 'return', 'method', 'public', 'java', 'throw', 'exception']</t>
+    <t>decide experiment discover size stack frame far stack currently execute interesting investigate level deep stack level recursion method reach hit stackoverflowerror stack depth currently execute come public static int levelsdeep throw somekindofexception catch somekindofexception return getstacktrace length bit hacky generate catch exception length stack trace unfortunately fatal limitation maximum length stack trace return gets axe maximum method return hacky limitation worth guess throwable getstacktracedepth native suggest prove pure java determine recursion depth leave number level reach determined size stack frame stack leave worry size stack frame level reach hit stackoverflowerror public static int stackleft return stackleft catch stackoverflowerror return job admirably linear stack remain weird bit java openjdk result perfectly consistent machine ubuntu bit oracle java non deterministic result record depth earth non deterministic suppose fix stack size deterministic wonder weird error trapping public static long badsum int return return badsum clearly return input overflow result non deterministic java badsum stackoverflowerror half time return half java openjdk consistent badsum complete fine badsum overflow maximum recursion depth non deterministic oracle java deterministic openjdk max recursion depth reach non deterministic</t>
   </si>
   <si>
     <t xml:space="preserve">   want   use circleci just   push   docker image   dockerhub when   merge with master      using circleci   other projects where     more useful and want     consistent    well       planning   add tests later   however all   builds fail because circleci says     tests    which   true  how can   disable circleci from checking for tests presence   </t>
@@ -1489,10 +1231,7 @@
     <t>['circleci']</t>
   </si>
   <si>
-    <t>['app', 'test', 'image']</t>
-  </si>
-  <si>
-    <t>['error', 'project', 'test', 'fail']</t>
+    <t>circleci push docker image dockerhub merge master circleci project useful consistent planning test later fail circleci test disable circleci test presence circleci test</t>
   </si>
   <si>
     <t xml:space="preserve">   have string like this            name  lorem ipsum  address  dolor set amet       and   need   convert that string   json  how   can       dart flutter  thank you   much for your help   </t>
@@ -1504,13 +1243,10 @@
     <t>['json', 'string', 'flutter', 'dart', 'jsonconvert']</t>
   </si>
   <si>
-    <t>['string', 'set', 'convert', 'json', 'object']</t>
-  </si>
-  <si>
-    <t>[('flutter', 'json')]</t>
-  </si>
-  <si>
-    <t>['json', 'string', 'flutter']</t>
+    <t>string lorem ipsum address dolor set amet convert string json dart flutter convert json string json object dart flutter</t>
+  </si>
+  <si>
+    <t>['json', 'string']</t>
   </si>
   <si>
     <t xml:space="preserve">   webpack config   file     follows      var path   require  path    var webpack   require  webpack    var commonschunkplugin   webpack optimize commonschunkplugin  var autoprefixer   require  autoprefixer    var htmlwebpackplugin   require  html webpack plugin    var extracttextplugin   require  extract text webpack plugin    var copywebpackplugin   require  copy webpack plugin    var env   process env npm_lifecycle_event  var istest   env      test     env      test watch   var isprod   env      build    module exports   function makewebpackconfig      var config           istest     config devtool    inline source map      else    isprod     config devtool    source map      else    config devtool    eval source map       config debug    isprod     istest   config entry   istest            vendor      src vendor       app      src bootstrap       our angular app      config output   istest           path  root     edu_analytics_prod_front dist     publicpath  isprod               filename  isprod       name   hash           name       chunkfilename  isprod         hash  chunk           chunk         config resolve      cache   istest   root  root     extensions                     json     css     scss     html     alias      app    src client     common    src common          config module      preloaders  istest          test          loader   tslint      loaders        support for    files      test           loader        query      ignorediagnostics                  subsequent variable declarations              duplicate identifier              duplicate number index signature              duplicate string index signature             referenced directly   indirectly         exclude   istest                       spec             node_modules          +           test      png jpe   gif svg woff woff  ttf eot ico     loader   file name fonts  name   hash   ext        test     json    loader   json        test     css     exclude  root  src    client     loader  istest    null    extracttextplugin extract  style    css sourcemap postcss           all css required   src client files will   merged     files   test     css    include  root  src    client    loader   raw postcss        test     scss     exclude  root  src    client     loader  istest    null    extracttextplugin extract  style    css sourcemap postcss sass         test     scss    exclude  root  src    style    loader   raw postcss sass      test     html    loader   raw        postloaders       noparse     +angular   bundles   +           istest     config module postloaders push    test               include  path resolve  src     loader   istanbul instrumenter loader    exclude      spec                     node_modules           config plugins      new webpack defineplugin     process env      env  json stringify env                  istest     config plugins push   new commonschunkplugin    name    vendor    polyfills         new htmlwebpackplugin    template     src public index html    inject   body    chunkssortmode  packagesort   polyfills    vendor    app          new webpack optimize uglifyjsplugin    compress    warnings  false         new extracttextplugin  css  name   hash  css    disable   isprod              isprod     config plugins push   new webpack noerrorsplugin     new webpack optimize dedupeplugin     new webpack optimize uglifyjsplugin    compress    warnings  false         new copywebpackplugin     from  root  src public                config postcss      autoprefixer    browsers    last   version            config sassloader        includepaths   path resolve __dirname   node_modules foundation sites scss         config tslint      emiterrors  false   failonhint  false      config devserver      contentbase     src public    historyapifallback  true   stats   minimal     none    false   errors only  minimal  normal    true  and verbose       return config        function root args     args   array prototype slice call arguments       return path join apply path   __dirname  concat args       function rootnode args     args   array prototype slice call arguments       return root apply path    node_modules   concat args       function packagesort packages     var len   packages length       var first   packages      var last   packages len    return function sort               names        first     return              names        last     return             names        first  amp  amp    names        last     return        else    return                 when     running command like   webpack       webpack              creating three files   follows            but all three files has output   string and using eval function   deploy   and one file has very big size        follows           want simple javascript file without eval used inside     all other common minification library works and   want   reduce size   vendor file   well   </t>
@@ -1522,10 +1258,7 @@
     <t>['javascript', 'webpack']</t>
   </si>
   <si>
-    <t>['argument', 'return', 'var', 'public', 'test', 'amp', 'string', 'map', 'create', 'variable', 'function', 'number', 'file', 'error', 'work', 'array']</t>
-  </si>
-  <si>
-    <t>['body', 'html', 'argument', 'return', 'var', 'template', 'test', 'javascript', 'map', 'angular', 'variable', 'function', 'module', 'require', 'work', 'export']</t>
+    <t>webpack config file var path require path var webpack require webpack var commonschunkplugin webpack optimize commonschunkplugin var autoprefixer require autoprefixer var htmlwebpackplugin require html webpack plugin var extracttextplugin require extract text webpack plugin var copywebpackplugin require copy webpack plugin var env process env npm_lifecycle_event var ist env test env test watch var isprod env module export function makewebpackconfig var config istest config devtool inline source map isprod config devtool source map config devtool eval source map config debug isprod ist config entry ist vendor src vendor app src bootstrap angular app config output ist path root edu_analytics_prod_front dist publicpath isprod filename isprod hash chunkfilename isprod hash chunk chunk config resolve cache ist root root extension json css scss html alias app src client common src common config module preloader ist test loader tslint loader support file test loader query ignorediagnostic subsequent variable declaration duplicate identifier duplicate number index signature duplicate string index signature reference directly indirectly exclude istest spec node_modules test png jpe gif svg woff woff ttf eot ico loader file font hash ext test json loader json test css exclude root src client loader ist extracttextplugin extract style css sourcemap postcss css require src client file merge file test css include root src client loader raw postcss test scss exclude root src client loader ist extracttextplugin extract style css sourcemap postcss sass test scss exclude root src style loader raw postcss sass test html loader raw postloader noparse angular bundle ist config module postloader push test include path resolve src loader istanbul instrumenter loader exclude spec node_modules config plugin webpack defineplugin process env env json stringify env ist config plugin push commonschunkplugin vendor polyfill htmlwebpackplugin template src public index html inject body chunkssortmode packagesort polyfill vendor app webpack optimize uglifyjsplugin compress warning extracttextplugin css hash css disable isprod isprod config plugin push webpack noerrorsplugin webpack optimize dedupeplugin webpack optimize uglifyjsplugin compress warning copywebpackplugin root src public config postcss autoprefixer browser version config sassloader includepath path resolve dirname node_modules foundation site scss config tslint emiterror failonhint config devserver contentbase src public historyapifallback stat minimal error minimal normal verbose return config function root args args array prototype slice argument return path join apply path dirname concat args function rootnode args args array prototype slice argument return root apply path node_module concat args function packagesort package var len package length var package var package len return function sort return return amp amp return return run command webpack webpack create file file output string eval function deploy file big size javascript file eval inside common minification library work reduce size vendor file webpack create output form string eval function deploy</t>
   </si>
   <si>
     <t xml:space="preserve">   want   declare   integer number     binary literal      possible   java   </t>
@@ -1537,7 +1270,7 @@
     <t>['java', 'syntax', 'binary', 'literals']</t>
   </si>
   <si>
-    <t>['java', 'integer']</t>
+    <t>declare integer number binary literal possible java binary literal java</t>
   </si>
   <si>
     <t xml:space="preserve"> can   assume that   c  the      operator will always evaluate       the two values are equal     can evaluate   other  true  values      struct      int        struct      int sid   int state      int count struct       int state     int num          foreach      type         hash table  num +      state    state  amp  amp           sid                  return num                sid           will return always            can return other values   </t>
@@ -1549,7 +1282,7 @@
     <t>['c']</t>
   </si>
   <si>
-    <t>['type', 'int', 'return', 'operator', 'num', 'struct', 'amp']</t>
+    <t>assume c operator evaluate value equal evaluate value struct int struct int sid int int count struct int int num foreach type hash table num amp amp sid return num sid return return value return value operator c</t>
   </si>
   <si>
     <t>[('c',)]</t>
@@ -1564,13 +1297,7 @@
     <t>['php', 'macos', 'wkhtmltopdf']</t>
   </si>
   <si>
-    <t>['datum', 'run', 'database', 'google', 'error', 'install', 'work', 'php', 'client', 'application']</t>
-  </si>
-  <si>
-    <t>[('php',)]</t>
-  </si>
-  <si>
-    <t>['php', 'macos']</t>
+    <t>write php mysql application utilize wkhtmltopdf generate report datum enter database client ask install run standalone mac currently php mysql portion run difficulty xammp incredible difficulty wkhtmltopdf instal zero experience mac despite hour googling different approach copy recent wkhtmltopdf usr folder oddly laptop usr local bin folder miss instruction work greatly appreciate offer install run wkhtmltopdf mac osx php application</t>
   </si>
   <si>
     <t xml:space="preserve">     application    had used linearlayout  inside that     having   edittext elements  now   want   increase the space padding  between the edittext element      possible   </t>
@@ -1582,7 +1309,7 @@
     <t>['android', 'android-layout']</t>
   </si>
   <si>
-    <t>['edittext', 'application', 'android', 'linearlayout']</t>
+    <t>application linearlayout inside edittext increase space padding edittext possible increase space linearlayout android</t>
   </si>
   <si>
     <t xml:space="preserve"> here     code      string addr         url url   new url addr   httpurlconnection httpcon    httpurlconnection  url openconnection    httpcon setdooutput true   httpcon setdoinput true   httpcon setusecaches false   httpcon setallowuserinteraction false     get      authorization    basic ywrtaw fyfgjkl      httpcon connect     outputstreamwriter out   new outputstreamwriter httpcon getoutputstream      system out println httpcon getresponsecode     system out println httpcon getresponsemessage      out close         what   see   response           server error        open       var  and what   see         post  rest platform domain list        why     set   post even though   have used    get       set     get   </t>
@@ -1594,13 +1321,7 @@
     <t>['java', 'http', 'urlconnection']</t>
   </si>
   <si>
-    <t>['file', 'open', 'error']</t>
-  </si>
-  <si>
-    <t>['error', 'set', 'response', 'url', 'server', 'post']</t>
-  </si>
-  <si>
-    <t>['java', 'http']</t>
+    <t>string addr url url url addr httpurlconnection httpcon httpurlconnection url openconnection httpcon setdooutput httpcon setdoinput httpcon setusecache httpcon setallowuserinteraction authorization basic ywrtaw fyfgjkl httpcon connect outputstreamwriter outputstreamwriter httpcon getoutputstream println httpcon getresponsecode println httpcon getresponsemessage close response server error open var post rest platform domain list set post set set</t>
   </si>
   <si>
     <t xml:space="preserve">     using the webclient from spring webflux  like this       webclient create     post     uri url    syncbody body    accept mediatype application_json    headers headers    exchange     flatmap clientresponse     clientresponse bodytomono tclass             working well    now want   handle the error from the webservice     calling      internal error   normally   would add   doonerror   the  stream  and isu the throwable   test the status code      but   issue   that   want   get the body provided   the webservice because     providing     message that   would like   use         looking     the flatmap whatever happen and test myself the status code   deserialize   not the body   </t>
@@ -1612,10 +1333,7 @@
     <t>['java', 'spring', 'spring-webflux', 'reactor']</t>
   </si>
   <si>
-    <t>['create', 'app', 'error', 'test', 'work', 'header', 'url', 'post']</t>
-  </si>
-  <si>
-    <t>['create', 'message', 'error', 'test', 'work', 'url', 'post']</t>
+    <t>webclient spring webflux webclient create post uri url syncbody body accept mediatype application_json header header exchange flatmap clientresponse clientresponse bodytomono tclass work handle error webservice internal error normally doonerror stream isu throwable test status issue body provide webservice provide message flatmap happen test status deserialize body spring webflux webclient body error</t>
   </si>
   <si>
     <t xml:space="preserve">   have gone through this thread  what causes and what are the differences between noclassdeffounderror and classnotfoundexception   this   what one   the ans which has max ups    thread      noclassdeffounderror         appears that the noclassdeffounderror  occurs when the source was successfully compiled  but   runtime  the required class files were not found   this may   something that can happen   the distribution   production   jar files  where not all the required class files were included       classnotfoundexception      for classnotfoundexception    appears that   may stem from trying   make reflective calls   classes   runtime  but the classes the program   trying   call   does not exist       did   small experiment     created   main class   class    and tried   call other class  class     from     compiled successfully     then   deleted the class   which   being called   class      got the  java lang classnotfoundexception  but   per the answer   the tread    should have got noclassdeffounderror  source was compiled succesfully but   runtime class files were not found  could anyone explain what     missing   the interpretation   the ans   the thread       package com random   public class       public static void main string   args          new               package com random   public class             </t>
@@ -1627,10 +1345,7 @@
     <t>['java', 'exception', 'noclassdeffounderror', 'classnotfoundexception']</t>
   </si>
   <si>
-    <t>['package', 'create', 'file', 'java', 'class']</t>
-  </si>
-  <si>
-    <t>['public', 'static', 'create', 'class']</t>
+    <t>cause difference noclassdeffounderror classnotfoundexception max noclassdeffounderror appear noclassdeffounderror occur source successfully compile runtime require class file happen distribution production jar file require class file include classnotfoundexception classnotfoundexception appear stem reflective class runtime class program small experiment create main class class class class compile successfully delete class class java lang classnotfoundexception answer tread noclassdeffounderror source compile succesfully runtime class file explain miss interpretation package com random public class public static main string args package com random public class classnotfoundexception noclassdeffounderror</t>
   </si>
   <si>
     <t xml:space="preserve">     like   use  curl    test flood handling     server  right now     using this     windows command line      curl www example com      which will  get  the page once      like   now   the same thing  except instead   one request    want   generate   least   requests   once  how would     this   </t>
@@ -1642,10 +1357,7 @@
     <t>['curl', 'request']</t>
   </si>
   <si>
-    <t>['test', 'line', 'file', 'command', 'window']</t>
-  </si>
-  <si>
-    <t>['request', 'error', 'test', 'page', 'command', 'window', 'server', 'com']</t>
+    <t>curl test flood handling server window command line curl www example com page request generate request curl perform multiple simultaneous request</t>
   </si>
   <si>
     <t xml:space="preserve"> what     missing  how     get this function   work      import dateutil parser import datetime  my_date   datetime datetime                      tzinfo tzutc     print my_date          gives   the error      nameerror  name  tzutc    not defined    </t>
@@ -1657,13 +1369,7 @@
     <t>['python', 'datetime', 'timezone']</t>
   </si>
   <si>
-    <t>['string', 'error', 'work', 'function', 'print']</t>
-  </si>
-  <si>
-    <t>['date', 'datetime']</t>
-  </si>
-  <si>
-    <t>['python', 'datetime']</t>
+    <t>miss function work import dateutil parser import datetime my_date datetime datetime tzinfo tzutc print my_date error nameerror tzutc define tzutc</t>
   </si>
   <si>
     <t xml:space="preserve">     trying   deploy   rails application   heroku   test   out   following these instructions            here   the command     trying   run      heroku create   stack cedar      and   get this error message       home sergio  rvm rubies ruby          lib ruby site_ruby       rubygems custom_require        require   cannot load such file    readline  loaderror   from  home sergio  rvm rubies ruby          lib ruby site_ruby       rubygems custom_require        require   from  home sergio  rvm gems ruby          gems heroku       lib heroku command run          top  required      from  home sergio  rvm rubies ruby          lib ruby site_ruby       rubygems custom_require        require   from  home sergio  rvm rubies ruby          lib ruby site_ruby       rubygems custom_require        require   from  home sergio  rvm gems ruby          gems heroku       lib heroku command        block   load   from  home sergio  rvm gems ruby          gems heroku       lib heroku command        each   from  home sergio  rvm gems ruby          gems heroku       lib heroku command        load   from  home sergio  rvm gems ruby          gems heroku       lib heroku cli        start   from  home sergio  rvm gems ruby          gems heroku       bin heroku        top  required      from  home sergio  rvm gems ruby          bin heroku      load   from  home sergio  rvm gems ruby          bin heroku        main         and this   the content   the file   question            copyright     chad fowler  rich kilmer  jim weirich and others    all rights reserved    see license txt for permissions   ++  module kernel     defined  gem_original_require  then    ruby ships with   custom_require  override its require  remove_method  require  else        the kernel require from before rubygems was loaded    alias gem_original_require require  private  gem_original_require  end         when rubygems   required  kernel require   replaced with our own which      capable   loading gems   demand        when you call      require            this   what happens         the file can   loaded from the existing ruby loadpath               otherwise  installed gems are searched for   file that matches           found   gem      that gem   activated  added   the    loadpath         the normal      require       functionality   returning false      that file has already been loaded   preserved    def require path    gem unresolved_deps empty  then  gem_original_require path  else  spec   gem  specification find          activated  and   contains_requirable_file  path      unless spec then  found_specs   gem  specification find_in_unresolved path  unless found_specs empty  then  found_specs    found_specs last   else  found_specs   gem  specification find_in_unresolved_tree path  end   found_specs each    found_spec   found_spec activate  end  end   return gem_original_require path  end  rescue loaderror     load_error    load_error message end_with  path  and gem try_activate path  then  return gem_original_require path   end   raise load_error  end   private  require  end        can run   application locally using  rails      but   just can   seem   publish     heroku   </t>
@@ -1675,18 +1381,15 @@
     <t>['ruby-on-rails', 'ruby', 'ruby-on-rails-3', 'heroku']</t>
   </si>
   <si>
-    <t>['create', 'file', 'run', 'app', 'error', 'test', 'content', 'application']</t>
-  </si>
-  <si>
-    <t>['command', 'create', 'message', 'run', 'error', 'test', 'start', 'application']</t>
+    <t>deploy rail application heroku test instruction command run heroku create stack cedar error message home sergio rvm rubies ruby lib ruby site_ruby rubygems custom_require require load file readline loaderror home sergio rvm rubies ruby lib ruby site_ruby rubygems custom_require require home sergio rvm gems ruby gem heroku lib heroku command run required home sergio rvm rubies ruby lib ruby site_ruby rubygems custom_require require home sergio rvm rubies ruby lib ruby site_ruby rubygems custom_require require home sergio rvm gems ruby gem heroku lib heroku command block load home sergio rvm gems ruby gem heroku lib heroku command home sergio rvm gems ruby gem heroku lib heroku command load home sergio rvm gems ruby gem heroku lib heroku cli start home sergio rvm gems ruby gem heroku bin heroku require home sergio rvm gems ruby bin heroku load home sergio rvm gems ruby bin heroku main content file copyright chad fowler rich kilmer jim weirich rights reserve license txt permission module kernel define gem_original_require ruby ship custom_require override require remove_method require kernel require rubygem load alias gem_original_require require gem_original_require end rubygem require kernel require replace capable loading gem demand require happen file load ruby loadpath instal gem search file match gem gem activate loadpath normal require functionality return file loaded preserve def require path gem unresolved_deps gem_original_require path spec gem specification activate contains_requirable_file path spec found_spec gem specification find_in_unresolve path found_spec found_spec found_spec found_spec gem specification find_in_unresolved_tree path end found_spec found_spec found_spec activate end end return gem_original_require path end rescue loaderror load_error load_error message end_with path gem try_activate path return gem_original_require path end raise load_error end require end run application locally rail publish heroku load file readline loaderror run heroku create stack cedar</t>
+  </si>
+  <si>
+    <t>['ruby-on-rails', 'ruby']</t>
   </si>
   <si>
     <t>[('ruby', 'ruby-on-rails')]</t>
   </si>
   <si>
-    <t>['ruby-on-rails', 'ruby']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> when   set  overflow        block    seems     affecting the  overflow    property      made    jsfiddle with   example   this problem     seems     happening   all browsers      think     missing something that should   obvious       have two non overlapping blocks  blue and green  along with   third block  red  with the following requirements       the blue and red blocks are adjacent   the red block   contained   the blue block  but   overlaps the green block   the blue block must allow vertical scrolling  but not horizontal scrolling      however      set  overflow    visible    the red block overlaps   the right  instead   behaves   though   set      scroll   however      remove the  overflow    property   set      visible   the red block behaves     expect         need vertical scrolling            loss for what         with the code below     html         div    container       div    left       div    floater      div       div      div    right        div      div         css        container    height      width       position  relative   background color   ccc  border  solid    black     left    position  absolute   top     left     bottom     width       overflow    visible   overflow    auto      removing this changes the result      background color  blue     index        right    position  absolute   top     right     bottom     width         index      background color  green     floater    position  absolute   right       top      height      width       background color  red       </t>
   </si>
   <si>
@@ -1696,13 +1399,7 @@
     <t>['html', 'css', 'stylesheet']</t>
   </si>
   <si>
-    <t>['string', 'set', 'result', 'example']</t>
-  </si>
-  <si>
-    <t>['html', 'width', 'set', 'background', 'container', 'border', 'leave', 'position', 'scroll', 'css', 'height', 'image', 'color']</t>
-  </si>
-  <si>
-    <t>[('css', 'html')]</t>
+    <t>set overflow block affect overflow property jsfiddle example happen browser miss obvious non overlap block blue green block red requirement blue red block adjacent red block contain blue block overlap green block blue block allow vertical scroll horizontal scroll set overflow visible red block overlap behave set scroll remove overflow property set visible red block behave expect vertical scroll loss html container leave floater css container height width position relative background color ccc border solid black left position absolute left width overflow visible overflow auto removing result background color blue index position absolute width index background color green floater position absolute height width background color red set overflow cause overflow</t>
   </si>
   <si>
     <t xml:space="preserve">      first some things that might   relevant         using the clang     compiler    c++  mode  with the standard library set   libc++         trying   familiarize myself with c++   and     doing   ran across behavior that seems odd    may     quirk   clang   libc++ but   can   speak c++ standardese and   have   access   other compilers with c++  support     can   really check    and     searched the internet and stack overflow   the best     ability without finding anything related     here         when using shared_ptr   unique_ptr   implement raii for   simple resource    seems that their behavior differs with respect   null pointers upon deletion    realize that normally     not necessary   delete   null pointer  but   had expected the behavior     least match between the two stl smart pointers     for the specific case  consider the following code         auto deleter      void    cout           later        endl     shared_ptr  void   spdosomethinglater nullptr  deleter    unique_ptr  void  void     void      updosomethinglater nullptr  deleter    cout           now        endl           would have expected one   the following outputs from this          both deleters are called even though the pointer   null           now        later        later             neither deleter   called because the pointer   null           now        but   observe neither   these cases  instead    observe           now        later        which means one but not the other   the deleters   being called  upon further investigation    found that the deleter for shared_ptr   called regardless   whether   holds   null value  but unique_ptr   deleter   only called     does not hold   null value       questions    this actually the correct behavior   specified   the standard       why does the specified behavior differ between the two stl types   this manner    not    this   bug   should report   libc++   </t>
@@ -1714,13 +1411,7 @@
     <t>['c++', 'c++11', 'shared-ptr', 'unique-ptr', 'nullptr']</t>
   </si>
   <si>
-    <t>['type', 'string', 'case', 'set', 'c++', 'mean', 'value']</t>
-  </si>
-  <si>
-    <t>['type', 'auto', 'case', 'set', 'int', 'endl', 'cout', 'pointer', 'compiler']</t>
-  </si>
-  <si>
-    <t>['c++', 'c++11']</t>
+    <t>relevant clang compiler c++ mode standard library set libc++ familiarize c++ run behavior odd quirk clang libc++ speak c++ standardese access compiler c++ support search internet stack overflow ability relate shared_ptr unique_ptr implement raii resource behavior differ respect pointer deletion realize normally necessary delete pointer expect behavior match stl smart pointer specific case consider auto deleter cout later endl shared_ptr spdosomethinglater nullptr deleter unique_ptr updosomethinglater nullptr deleter cout endl expect output deleter pointer later later deleter pointer observe case observe later mean deleter investigation deleter shared_ptr regardless hold value unique_ptr deleter hold value actually correct behavior specify standard specify behavior differ stl type manner bug report libc++ standard behavior deleter differ shared_ptr unique_ptr case pointer</t>
   </si>
   <si>
     <t xml:space="preserve"> say   have   dataset  like     iris     dataframe sns load_dataset  iris           can use  spacy  and   apply    parse   string column into tokens    real dataset has    word token per entry   course      import spacy      have version        nlp   spacy load      iris  species_parsed     iris  species   apply nlp       result       sepal_length     species species_parsed           setosa  setosa            setosa  setosa            setosa  setosa         can also use this convenient multiprocessing function   thanks   this blogpost       most arbitrary apply functions     dataframe   parallel      from multiprocessing import pool  cpu_count def parallelize_dataframe    func  num_partitions     df_split     array_split    num_partitions   pool   pool num_partitions         concat pool map func  df_split     pool close    pool join    return        for example      def my_func         length_of_word        species   apply lambda    len      return    num_cores   cpu_count   iris   parallelize_dataframe iris  my_func  num_cores       result       sepal_length species length_of_word       setosa         setosa         setosa           but for some reason    can   apply the spacy parser     dataframe using multiprocessing this way       def add_parsed         species_parsed        species   apply nlp   return    iris   parallelize_dataframe iris  add_parsed  num_cores       result       sepal_length species length_of_word species_parsed       setosa            setosa            setosa             there some other way     this      loving spacy for nlp but   have   lot   text data and       like   parallelize some processing functions  but ran into this issue   </t>
@@ -1732,10 +1423,7 @@
     <t>['python', 'nlp', 'multiprocessing', 'spacy']</t>
   </si>
   <si>
-    <t>['version', 'file', 'import', 'run']</t>
-  </si>
-  <si>
-    <t>['dataframe', 'result', 'example', 'datum', 'column', 'apply', 'panda']</t>
+    <t>dataset iris dataframe sns load_dataset iris spacy apply parse string column token real dataset word token entry course import spacy version nlp spacy load iris species_parse iris specie apply nlp result sepal_length specie species_parse setosa setosa setosa setosa setosa setosa convenient multiprocesse function blogpost arbitrary apply function dataframe parallel multiprocesse import pool cpu_count def parallelize_dataframe func num_partition df_split array_split num_partition pool pool num_partition concat pool map func df_split pool close pool join return example def my_func length_of_word specie apply lambda len return num_core cpu_count iris parallelize_dataframe iris my_func num_core result sepal_length specie length_of_word setosa setosa setosa reason apply spacy parser dataframe multiprocesse def add_parse species_parse specie apply nlp return iris parallelize_dataframe iris add_parse num_core result sepal_length specie length_of_word species_parse setosa setosa setosa love spacy nlp lot text datum parallelize processing function run issue apply spacy parser panda dataframe multiprocesse</t>
   </si>
   <si>
     <t xml:space="preserve">     aware   the shorthand for map that looks like                   map  amp  to_s                                 was told this   shorthand for                   map       to_s       this makes perfect sense    question   this    seems there should     easier way   write                   map       call          for some procedure      know the way   just typed isn   all that long   begin with  but     contend that neither   the previous example for which the shorthand exists  this example just seems like the complement   the first example  rather than calling     to_s method for every      wish   call   for every        does such   shorthand exist   </t>
@@ -1747,7 +1435,7 @@
     <t>['ruby', 'map', 'shorthand']</t>
   </si>
   <si>
-    <t>['type', 'error', 'method']</t>
+    <t>aware shorthand map map amp to_s tell shorthand map to_s perfect sense easy write map procedure type long begin contend previous example shorthand example complement example to_s method wish shorthand ruby map shorthand notation</t>
   </si>
   <si>
     <t>['ruby']</t>
@@ -1762,16 +1450,13 @@
     <t>['html', 'ide', 'editor', 'phpstorm']</t>
   </si>
   <si>
-    <t>['app', 'html', 'tag']</t>
-  </si>
-  <si>
-    <t>['html', 'image', 'tag']</t>
+    <t>phpstorm love disable autocompletion double quotation mark write html tag attribute annoy disable autocompletion quotation mark write html attribute phpstorm</t>
+  </si>
+  <si>
+    <t>['html']</t>
   </si>
   <si>
     <t>[('html',)]</t>
-  </si>
-  <si>
-    <t>['html']</t>
   </si>
 </sst>
 </file>
@@ -2136,16 +1821,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2187,14 +1870,14 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2202,25 +1885,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2228,22 +1911,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
+      <c r="F4">
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -2254,25 +1937,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2280,25 +1963,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2306,25 +1989,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2332,25 +2015,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2358,25 +2041,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2384,25 +2067,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2410,25 +2093,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2436,25 +2119,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2462,25 +2145,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2488,25 +2171,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2514,25 +2197,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2540,25 +2223,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2566,25 +2249,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2592,25 +2275,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2618,25 +2301,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" t="s">
-        <v>116</v>
+        <v>97</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2644,25 +2327,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2670,25 +2353,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" t="s">
-        <v>129</v>
+        <v>107</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2696,25 +2379,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2722,25 +2405,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" t="s">
-        <v>142</v>
+        <v>118</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2748,25 +2431,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>147</v>
+        <v>123</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2774,25 +2457,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" t="s">
-        <v>154</v>
+        <v>129</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2800,25 +2483,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" t="s">
-        <v>161</v>
+        <v>133</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2826,25 +2509,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>167</v>
+        <v>138</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2852,25 +2535,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>173</v>
+        <v>143</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2878,25 +2561,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" t="s">
-        <v>178</v>
+        <v>148</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2904,22 +2587,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" t="s">
-        <v>184</v>
+        <v>153</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
         <v>22</v>
@@ -2930,25 +2613,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" t="s">
-        <v>189</v>
+        <v>157</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2956,25 +2639,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" t="s">
-        <v>196</v>
+        <v>163</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2982,25 +2665,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F33" t="s">
-        <v>201</v>
+        <v>167</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3008,25 +2691,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F34" t="s">
-        <v>207</v>
+        <v>172</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3034,25 +2717,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" t="s">
-        <v>213</v>
+        <v>177</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3060,25 +2743,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36" t="s">
-        <v>219</v>
+        <v>182</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="H36" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3086,25 +2769,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" t="s">
-        <v>226</v>
+        <v>188</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="H37" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3112,25 +2795,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>232</v>
-      </c>
-      <c r="F38" t="s">
-        <v>233</v>
+        <v>194</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3138,25 +2821,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
-      </c>
-      <c r="F39" t="s">
-        <v>239</v>
+        <v>199</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3164,25 +2847,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F40" t="s">
-        <v>244</v>
+        <v>203</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="H40" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3190,25 +2873,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s">
-        <v>248</v>
-      </c>
-      <c r="F41" t="s">
-        <v>249</v>
+        <v>207</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3216,25 +2899,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="E42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F42" t="s">
-        <v>255</v>
+        <v>212</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="H42" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3242,25 +2925,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" t="s">
-        <v>261</v>
+        <v>218</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3268,25 +2951,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>267</v>
-      </c>
-      <c r="F44" t="s">
-        <v>268</v>
+        <v>222</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="H44" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3294,25 +2977,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="D45" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>273</v>
-      </c>
-      <c r="F45" t="s">
-        <v>274</v>
+        <v>226</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3320,25 +3003,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" t="s">
-        <v>278</v>
+        <v>230</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3346,25 +3029,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>282</v>
+        <v>234</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3372,25 +3055,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>286</v>
-      </c>
-      <c r="F48" t="s">
-        <v>287</v>
+        <v>239</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>288</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3398,25 +3081,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
-      </c>
-      <c r="F49" t="s">
-        <v>293</v>
+        <v>243</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3424,25 +3107,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>260</v>
-      </c>
-      <c r="F50" t="s">
-        <v>299</v>
+        <v>249</v>
+      </c>
+      <c r="F50">
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="H50" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3450,25 +3133,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
-      </c>
-      <c r="F51" t="s">
-        <v>305</v>
+        <v>254</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H51" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3476,25 +3159,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="C52" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="D52" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" t="s">
-        <v>311</v>
+        <v>258</v>
+      </c>
+      <c r="F52">
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3502,25 +3185,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="C53" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="D53" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>315</v>
-      </c>
-      <c r="F53" t="s">
-        <v>316</v>
+        <v>262</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3528,25 +3211,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="E54" t="s">
-        <v>321</v>
-      </c>
-      <c r="F54" t="s">
-        <v>322</v>
+        <v>267</v>
+      </c>
+      <c r="F54">
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="H54" t="s">
-        <v>323</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3554,25 +3237,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
-      </c>
-      <c r="F55" t="s">
-        <v>328</v>
+        <v>271</v>
+      </c>
+      <c r="F55">
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="H55" t="s">
-        <v>326</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -3580,25 +3263,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="D56" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="E56" t="s">
-        <v>333</v>
-      </c>
-      <c r="F56" t="s">
-        <v>334</v>
+        <v>276</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="H56" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3606,25 +3289,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="C57" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="E57" t="s">
-        <v>340</v>
-      </c>
-      <c r="F57" t="s">
-        <v>341</v>
+        <v>282</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H57" t="s">
-        <v>342</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3632,25 +3315,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="E58" t="s">
-        <v>346</v>
-      </c>
-      <c r="F58" t="s">
-        <v>347</v>
+        <v>286</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="H58" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3658,25 +3341,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>351</v>
-      </c>
-      <c r="F59" t="s">
-        <v>352</v>
+        <v>290</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="H59" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3684,25 +3367,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="C60" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="D60" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="E60" t="s">
-        <v>356</v>
-      </c>
-      <c r="F60" t="s">
-        <v>357</v>
+        <v>294</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="H60" t="s">
-        <v>131</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3710,25 +3393,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="C61" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="D61" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="E61" t="s">
-        <v>362</v>
-      </c>
-      <c r="F61" t="s">
-        <v>363</v>
+        <v>299</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="H61" t="s">
-        <v>364</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3736,25 +3419,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="D62" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="E62" t="s">
-        <v>368</v>
-      </c>
-      <c r="F62" t="s">
-        <v>369</v>
+        <v>304</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="H62" t="s">
-        <v>370</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3762,25 +3445,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="D63" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" t="s">
-        <v>374</v>
+        <v>309</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="H63" t="s">
-        <v>373</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3788,25 +3471,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="D64" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="E64" t="s">
-        <v>379</v>
-      </c>
-      <c r="F64" t="s">
-        <v>380</v>
+        <v>314</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="H64" t="s">
-        <v>381</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3814,25 +3497,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>383</v>
+        <v>318</v>
       </c>
       <c r="D65" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" t="s">
-        <v>385</v>
+        <v>320</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3840,25 +3523,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="D66" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="E66" t="s">
-        <v>390</v>
-      </c>
-      <c r="F66" t="s">
-        <v>391</v>
+        <v>324</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="H66" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3866,25 +3549,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="C67" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>327</v>
-      </c>
-      <c r="F67" t="s">
-        <v>396</v>
+        <v>329</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>22</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -3892,25 +3575,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="C68" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="D68" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="E68" t="s">
-        <v>401</v>
-      </c>
-      <c r="F68" t="s">
-        <v>402</v>
+        <v>334</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H68" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -3918,25 +3601,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="C69" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="D69" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="E69" t="s">
-        <v>406</v>
-      </c>
-      <c r="F69" t="s">
-        <v>407</v>
+        <v>338</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="H69" t="s">
-        <v>408</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3944,25 +3627,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="C70" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="D70" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="E70" t="s">
-        <v>412</v>
-      </c>
-      <c r="F70" t="s">
-        <v>413</v>
+        <v>343</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>344</v>
       </c>
       <c r="H70" t="s">
-        <v>414</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3970,25 +3653,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="D71" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="E71" t="s">
-        <v>418</v>
-      </c>
-      <c r="F71" t="s">
-        <v>419</v>
+        <v>348</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H71" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3996,25 +3679,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>420</v>
+        <v>349</v>
       </c>
       <c r="C72" t="s">
-        <v>421</v>
+        <v>350</v>
       </c>
       <c r="D72" t="s">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="E72" t="s">
-        <v>423</v>
-      </c>
-      <c r="F72" t="s">
-        <v>424</v>
+        <v>352</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>425</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4022,25 +3705,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="C73" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="D73" t="s">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="E73" t="s">
-        <v>430</v>
-      </c>
-      <c r="F73" t="s">
-        <v>431</v>
+        <v>357</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H73" t="s">
-        <v>432</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4048,25 +3731,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="C74" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="D74" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="E74" t="s">
-        <v>436</v>
-      </c>
-      <c r="F74" t="s">
-        <v>437</v>
+        <v>361</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="H74" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4074,25 +3757,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="C75" t="s">
-        <v>439</v>
+        <v>363</v>
       </c>
       <c r="D75" t="s">
-        <v>440</v>
+        <v>364</v>
       </c>
       <c r="E75" t="s">
-        <v>441</v>
-      </c>
-      <c r="F75" t="s">
-        <v>49</v>
+        <v>365</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="H75" t="s">
-        <v>442</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4100,25 +3783,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>443</v>
+        <v>367</v>
       </c>
       <c r="C76" t="s">
-        <v>444</v>
+        <v>368</v>
       </c>
       <c r="D76" t="s">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="E76" t="s">
-        <v>446</v>
-      </c>
-      <c r="F76" t="s">
-        <v>447</v>
+        <v>370</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H76" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4126,25 +3809,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>448</v>
+        <v>371</v>
       </c>
       <c r="C77" t="s">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="D77" t="s">
-        <v>450</v>
+        <v>373</v>
       </c>
       <c r="E77" t="s">
-        <v>451</v>
-      </c>
-      <c r="F77" t="s">
-        <v>452</v>
+        <v>374</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>453</v>
+        <v>68</v>
       </c>
       <c r="H77" t="s">
-        <v>454</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4152,25 +3835,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>455</v>
+        <v>376</v>
       </c>
       <c r="C78" t="s">
-        <v>456</v>
+        <v>377</v>
       </c>
       <c r="D78" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="E78" t="s">
-        <v>458</v>
-      </c>
-      <c r="F78" t="s">
-        <v>459</v>
+        <v>379</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>460</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -4178,25 +3861,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="C79" t="s">
-        <v>462</v>
+        <v>381</v>
       </c>
       <c r="D79" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="E79" t="s">
-        <v>464</v>
-      </c>
-      <c r="F79" t="s">
-        <v>465</v>
+        <v>383</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H79" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -4204,25 +3887,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>466</v>
+        <v>384</v>
       </c>
       <c r="C80" t="s">
-        <v>467</v>
+        <v>385</v>
       </c>
       <c r="D80" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="E80" t="s">
-        <v>464</v>
-      </c>
-      <c r="F80" t="s">
-        <v>469</v>
+        <v>387</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>470</v>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>44</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4230,25 +3913,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="C81" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="D81" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="E81" t="s">
-        <v>474</v>
-      </c>
-      <c r="F81" t="s">
-        <v>475</v>
+        <v>391</v>
+      </c>
+      <c r="F81">
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H81" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4256,25 +3939,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="C82" t="s">
-        <v>477</v>
+        <v>393</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>478</v>
-      </c>
-      <c r="F82" t="s">
-        <v>479</v>
+        <v>394</v>
+      </c>
+      <c r="F82">
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4282,25 +3965,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="C83" t="s">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="D83" t="s">
-        <v>483</v>
+        <v>398</v>
       </c>
       <c r="E83" t="s">
-        <v>484</v>
-      </c>
-      <c r="F83" t="s">
-        <v>485</v>
+        <v>399</v>
+      </c>
+      <c r="F83">
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="H83" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -4308,25 +3991,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>486</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s">
-        <v>487</v>
+        <v>401</v>
       </c>
       <c r="D84" t="s">
-        <v>488</v>
+        <v>402</v>
       </c>
       <c r="E84" t="s">
-        <v>489</v>
-      </c>
-      <c r="F84" t="s">
-        <v>490</v>
+        <v>403</v>
+      </c>
+      <c r="F84">
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="H84" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -4334,25 +4017,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="C85" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="D85" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" t="s">
-        <v>494</v>
+        <v>407</v>
+      </c>
+      <c r="F85">
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="H85" t="s">
-        <v>496</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4360,25 +4043,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>497</v>
+        <v>409</v>
       </c>
       <c r="C86" t="s">
-        <v>498</v>
+        <v>410</v>
       </c>
       <c r="D86" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="E86" t="s">
-        <v>500</v>
-      </c>
-      <c r="F86" t="s">
-        <v>501</v>
+        <v>412</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="H86" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4386,25 +4069,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>502</v>
+        <v>413</v>
       </c>
       <c r="C87" t="s">
-        <v>503</v>
+        <v>414</v>
       </c>
       <c r="D87" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="E87" t="s">
-        <v>49</v>
-      </c>
-      <c r="F87" t="s">
-        <v>505</v>
+        <v>416</v>
+      </c>
+      <c r="F87">
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -4412,25 +4095,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>506</v>
+        <v>417</v>
       </c>
       <c r="C88" t="s">
-        <v>507</v>
+        <v>418</v>
       </c>
       <c r="D88" t="s">
-        <v>508</v>
+        <v>419</v>
       </c>
       <c r="E88" t="s">
-        <v>327</v>
-      </c>
-      <c r="F88" t="s">
-        <v>509</v>
+        <v>420</v>
+      </c>
+      <c r="F88">
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="H88" t="s">
-        <v>508</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -4438,25 +4121,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="C89" t="s">
-        <v>512</v>
+        <v>423</v>
       </c>
       <c r="D89" t="s">
-        <v>513</v>
+        <v>424</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
-      </c>
-      <c r="F89" t="s">
-        <v>514</v>
+        <v>425</v>
+      </c>
+      <c r="F89">
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>515</v>
+        <v>114</v>
       </c>
       <c r="H89" t="s">
-        <v>516</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4464,25 +4147,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="C90" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
       <c r="D90" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
-      </c>
-      <c r="F90" t="s">
-        <v>520</v>
+        <v>429</v>
+      </c>
+      <c r="F90">
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H90" t="s">
-        <v>519</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -4490,25 +4173,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>521</v>
+        <v>430</v>
       </c>
       <c r="C91" t="s">
-        <v>522</v>
+        <v>431</v>
       </c>
       <c r="D91" t="s">
-        <v>523</v>
+        <v>432</v>
       </c>
       <c r="E91" t="s">
-        <v>524</v>
-      </c>
-      <c r="F91" t="s">
-        <v>525</v>
+        <v>433</v>
+      </c>
+      <c r="F91">
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="H91" t="s">
-        <v>526</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4516,25 +4199,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>527</v>
+        <v>434</v>
       </c>
       <c r="C92" t="s">
-        <v>528</v>
+        <v>435</v>
       </c>
       <c r="D92" t="s">
-        <v>529</v>
+        <v>436</v>
       </c>
       <c r="E92" t="s">
-        <v>530</v>
-      </c>
-      <c r="F92" t="s">
-        <v>531</v>
+        <v>437</v>
+      </c>
+      <c r="F92">
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H92" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4542,25 +4225,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>532</v>
+        <v>438</v>
       </c>
       <c r="C93" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
       <c r="D93" t="s">
-        <v>534</v>
+        <v>440</v>
       </c>
       <c r="E93" t="s">
-        <v>535</v>
-      </c>
-      <c r="F93" t="s">
-        <v>536</v>
+        <v>441</v>
+      </c>
+      <c r="F93">
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -4568,25 +4251,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>537</v>
+        <v>442</v>
       </c>
       <c r="C94" t="s">
-        <v>538</v>
+        <v>443</v>
       </c>
       <c r="D94" t="s">
-        <v>539</v>
+        <v>444</v>
       </c>
       <c r="E94" t="s">
-        <v>540</v>
-      </c>
-      <c r="F94" t="s">
-        <v>541</v>
+        <v>445</v>
+      </c>
+      <c r="F94">
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H94" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4594,25 +4277,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>542</v>
+        <v>446</v>
       </c>
       <c r="C95" t="s">
-        <v>543</v>
+        <v>447</v>
       </c>
       <c r="D95" t="s">
-        <v>544</v>
+        <v>448</v>
       </c>
       <c r="E95" t="s">
-        <v>545</v>
-      </c>
-      <c r="F95" t="s">
-        <v>546</v>
+        <v>449</v>
+      </c>
+      <c r="F95">
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H95" t="s">
-        <v>547</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -4620,25 +4303,25 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>548</v>
+        <v>450</v>
       </c>
       <c r="C96" t="s">
-        <v>549</v>
+        <v>451</v>
       </c>
       <c r="D96" t="s">
-        <v>550</v>
+        <v>452</v>
       </c>
       <c r="E96" t="s">
-        <v>551</v>
-      </c>
-      <c r="F96" t="s">
-        <v>552</v>
+        <v>453</v>
+      </c>
+      <c r="F96">
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>553</v>
+        <v>454</v>
       </c>
       <c r="H96" t="s">
-        <v>554</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4646,25 +4329,25 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>555</v>
+        <v>456</v>
       </c>
       <c r="C97" t="s">
-        <v>556</v>
+        <v>457</v>
       </c>
       <c r="D97" t="s">
-        <v>557</v>
+        <v>458</v>
       </c>
       <c r="E97" t="s">
-        <v>558</v>
-      </c>
-      <c r="F97" t="s">
-        <v>559</v>
+        <v>459</v>
+      </c>
+      <c r="F97">
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>560</v>
+        <v>132</v>
       </c>
       <c r="H97" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4672,25 +4355,25 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>561</v>
+        <v>460</v>
       </c>
       <c r="C98" t="s">
-        <v>562</v>
+        <v>461</v>
       </c>
       <c r="D98" t="s">
-        <v>563</v>
+        <v>462</v>
       </c>
       <c r="E98" t="s">
-        <v>564</v>
-      </c>
-      <c r="F98" t="s">
-        <v>565</v>
+        <v>463</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>566</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4698,25 +4381,25 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>567</v>
+        <v>464</v>
       </c>
       <c r="C99" t="s">
-        <v>568</v>
+        <v>465</v>
       </c>
       <c r="D99" t="s">
-        <v>569</v>
+        <v>466</v>
       </c>
       <c r="E99" t="s">
-        <v>570</v>
-      </c>
-      <c r="F99" t="s">
-        <v>571</v>
+        <v>467</v>
+      </c>
+      <c r="F99">
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H99" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -4724,25 +4407,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>572</v>
+        <v>468</v>
       </c>
       <c r="C100" t="s">
-        <v>573</v>
+        <v>469</v>
       </c>
       <c r="D100" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="E100" t="s">
-        <v>412</v>
-      </c>
-      <c r="F100" t="s">
-        <v>575</v>
+        <v>471</v>
+      </c>
+      <c r="F100">
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>472</v>
       </c>
       <c r="H100" t="s">
-        <v>576</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4750,25 +4433,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>577</v>
+        <v>473</v>
       </c>
       <c r="C101" t="s">
-        <v>578</v>
+        <v>474</v>
       </c>
       <c r="D101" t="s">
-        <v>579</v>
+        <v>475</v>
       </c>
       <c r="E101" t="s">
-        <v>580</v>
-      </c>
-      <c r="F101" t="s">
-        <v>581</v>
+        <v>476</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="H101" t="s">
-        <v>583</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
